--- a/tutorial_projects/tutorial1/cassandra/postproc/report_charts.xlsx
+++ b/tutorial_projects/tutorial1/cassandra/postproc/report_charts.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aa_git_repos\aa_non_code_repos\cassandra_default_road_model\tutorial_projects\tutorial1\cassandra\postproc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5975F198-00C6-474E-B4E2-1A41E48DDEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2895E6C8-E130-43ED-B223-FA9B74067891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{C2C5AE50-D832-499E-82B7-35A971C1D7FB}"/>
+    <workbookView xWindow="7545" yWindow="0" windowWidth="37710" windowHeight="19725" activeTab="1" xr2:uid="{C2C5AE50-D832-499E-82B7-35A971C1D7FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="breakdown_length_percent" sheetId="1" r:id="rId1"/>
-    <sheet name="treatment_length_percent" sheetId="3" r:id="rId2"/>
-    <sheet name="treatment_spending" sheetId="4" r:id="rId3"/>
+    <sheet name="param_forecast" sheetId="5" r:id="rId1"/>
+    <sheet name="breakdown_length_percent" sheetId="1" r:id="rId2"/>
+    <sheet name="treatment_length_percent" sheetId="3" r:id="rId3"/>
+    <sheet name="treatment_spending" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
   <si>
     <t>bin_descrip</t>
   </si>
@@ -47,69 +48,6 @@
   </si>
   <si>
     <t>upper</t>
-  </si>
-  <si>
-    <t>2023_file_length %</t>
-  </si>
-  <si>
-    <t>2024_file_length %</t>
-  </si>
-  <si>
-    <t>2025_file_length %</t>
-  </si>
-  <si>
-    <t>2026_file_length %</t>
-  </si>
-  <si>
-    <t>2027_file_length %</t>
-  </si>
-  <si>
-    <t>2028_file_length %</t>
-  </si>
-  <si>
-    <t>2029_file_length %</t>
-  </si>
-  <si>
-    <t>2030_file_length %</t>
-  </si>
-  <si>
-    <t>2031_file_length %</t>
-  </si>
-  <si>
-    <t>2032_file_length %</t>
-  </si>
-  <si>
-    <t>2033_file_length %</t>
-  </si>
-  <si>
-    <t>2034_file_length %</t>
-  </si>
-  <si>
-    <t>2035_file_length %</t>
-  </si>
-  <si>
-    <t>2036_file_length %</t>
-  </si>
-  <si>
-    <t>2037_file_length %</t>
-  </si>
-  <si>
-    <t>2038_file_length %</t>
-  </si>
-  <si>
-    <t>2039_file_length %</t>
-  </si>
-  <si>
-    <t>2040_file_length %</t>
-  </si>
-  <si>
-    <t>2041_file_length %</t>
-  </si>
-  <si>
-    <t>2042_file_length %</t>
-  </si>
-  <si>
-    <t>2043_file_length %</t>
   </si>
   <si>
     <t>Values &lt; 4</t>
@@ -168,14 +106,236 @@
   <si>
     <t>Spending Relative to Total Budget</t>
   </si>
+  <si>
+    <t>statistic</t>
+  </si>
+  <si>
+    <t>sum_of_all_values</t>
+  </si>
+  <si>
+    <t>sum_of_all_deviations</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>sample_range</t>
+  </si>
+  <si>
+    <t>sample_variance</t>
+  </si>
+  <si>
+    <t>coeff._of_variation</t>
+  </si>
+  <si>
+    <t>coeff._of_variation_(%)</t>
+  </si>
+  <si>
+    <t>number_of_obs.</t>
+  </si>
+  <si>
+    <t>maximum_value</t>
+  </si>
+  <si>
+    <t>minimum_value</t>
+  </si>
+  <si>
+    <t>median_value</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>1th_percentile</t>
+  </si>
+  <si>
+    <t>2th_percentile</t>
+  </si>
+  <si>
+    <t>2.5th_percentile</t>
+  </si>
+  <si>
+    <t>4th_percentile</t>
+  </si>
+  <si>
+    <t>5th_percentile</t>
+  </si>
+  <si>
+    <t>10th_percentile</t>
+  </si>
+  <si>
+    <t>12th_percentile</t>
+  </si>
+  <si>
+    <t>14th_percentile</t>
+  </si>
+  <si>
+    <t>15th_percentile</t>
+  </si>
+  <si>
+    <t>18th_percentile</t>
+  </si>
+  <si>
+    <t>20th_percentile</t>
+  </si>
+  <si>
+    <t>25th_percentile</t>
+  </si>
+  <si>
+    <t>26th_percentile</t>
+  </si>
+  <si>
+    <t>30th_percentile</t>
+  </si>
+  <si>
+    <t>31th_percentile</t>
+  </si>
+  <si>
+    <t>35th_percentile</t>
+  </si>
+  <si>
+    <t>39th_percentile</t>
+  </si>
+  <si>
+    <t>40th_percentile</t>
+  </si>
+  <si>
+    <t>45th_percentile</t>
+  </si>
+  <si>
+    <t>50th_percentile</t>
+  </si>
+  <si>
+    <t>55th_percentile</t>
+  </si>
+  <si>
+    <t>60th_percentile</t>
+  </si>
+  <si>
+    <t>61th_percentile</t>
+  </si>
+  <si>
+    <t>65th_percentile</t>
+  </si>
+  <si>
+    <t>69th_percentile</t>
+  </si>
+  <si>
+    <t>70th_percentile</t>
+  </si>
+  <si>
+    <t>74th_percentile</t>
+  </si>
+  <si>
+    <t>75th_percentile</t>
+  </si>
+  <si>
+    <t>80th_percentile</t>
+  </si>
+  <si>
+    <t>82th_percentile</t>
+  </si>
+  <si>
+    <t>85th_percentile</t>
+  </si>
+  <si>
+    <t>86th_percentile</t>
+  </si>
+  <si>
+    <t>88th_percentile</t>
+  </si>
+  <si>
+    <t>90th_percentile</t>
+  </si>
+  <si>
+    <t>95th_percentile</t>
+  </si>
+  <si>
+    <t>96th_percentile</t>
+  </si>
+  <si>
+    <t>97.5th_percentile</t>
+  </si>
+  <si>
+    <t>98th_percentile</t>
+  </si>
+  <si>
+    <t>99th_percentile</t>
+  </si>
+  <si>
+    <t>2023_count %</t>
+  </si>
+  <si>
+    <t>2024_count %</t>
+  </si>
+  <si>
+    <t>2025_count %</t>
+  </si>
+  <si>
+    <t>2026_count %</t>
+  </si>
+  <si>
+    <t>2027_count %</t>
+  </si>
+  <si>
+    <t>2028_count %</t>
+  </si>
+  <si>
+    <t>2029_count %</t>
+  </si>
+  <si>
+    <t>2030_count %</t>
+  </si>
+  <si>
+    <t>2031_count %</t>
+  </si>
+  <si>
+    <t>2032_count %</t>
+  </si>
+  <si>
+    <t>2033_count %</t>
+  </si>
+  <si>
+    <t>2034_count %</t>
+  </si>
+  <si>
+    <t>2035_count %</t>
+  </si>
+  <si>
+    <t>2036_count %</t>
+  </si>
+  <si>
+    <t>2037_count %</t>
+  </si>
+  <si>
+    <t>2038_count %</t>
+  </si>
+  <si>
+    <t>2039_count %</t>
+  </si>
+  <si>
+    <t>2040_count %</t>
+  </si>
+  <si>
+    <t>2041_count %</t>
+  </si>
+  <si>
+    <t>2042_count %</t>
+  </si>
+  <si>
+    <t>2043_count %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.000%"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -243,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -266,14 +426,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -285,6 +442,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -315,6 +487,748 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Rut Depth Forecast</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1052755003562699"/>
+          <c:y val="0.10555672954599288"/>
+          <c:w val="0.86399521365671217"/>
+          <c:h val="0.74647207158916484"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>param_forecast!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>param_forecast!$C$2:$W$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>param_forecast!$C$3:$W$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-873F-4740-8E31-86E9DA85BB3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>param_forecast!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90th_percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>param_forecast!$C$2:$W$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>param_forecast!$C$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-873F-4740-8E31-86E9DA85BB3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1314350159"/>
+        <c:axId val="1314349199"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1314350159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1314349199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1314349199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1400"/>
+                  <a:t>Rut</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1400" baseline="0"/>
+                  <a:t> Depth (mm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2772050400916382E-2"/>
+              <c:y val="0.30972111141313663"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1314350159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -489,67 +1403,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>23.268000000000001</c:v>
+                  <c:v>23.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.85</c:v>
+                  <c:v>23.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.745000000000001</c:v>
+                  <c:v>22.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.346</c:v>
+                  <c:v>21.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.663</c:v>
+                  <c:v>21.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.134</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.489000000000001</c:v>
+                  <c:v>20.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.166</c:v>
+                  <c:v>21.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.757000000000001</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.803000000000001</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.881</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.545000000000002</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.858000000000001</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.768000000000001</c:v>
+                  <c:v>18.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.32</c:v>
+                  <c:v>17.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.941000000000001</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.651999999999999</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.505000000000001</c:v>
+                  <c:v>15.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.8729999999999993</c:v>
+                  <c:v>12.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.0220000000000002</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.7959999999999994</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -663,67 +1577,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>41.500999999999998</c:v>
+                  <c:v>38.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.383000000000003</c:v>
+                  <c:v>39.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.218000000000004</c:v>
+                  <c:v>42.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.884</c:v>
+                  <c:v>44.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.637999999999998</c:v>
+                  <c:v>48.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.738999999999997</c:v>
+                  <c:v>48.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.182000000000002</c:v>
+                  <c:v>47.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43.143999999999998</c:v>
+                  <c:v>44.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44.137</c:v>
+                  <c:v>43.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.773000000000003</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.584000000000003</c:v>
+                  <c:v>42.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.753999999999998</c:v>
+                  <c:v>43.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.131</c:v>
+                  <c:v>42.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45.57</c:v>
+                  <c:v>47.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.569000000000003</c:v>
+                  <c:v>50.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51.787999999999997</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.85</c:v>
+                  <c:v>51.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50.667000000000002</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>53.215000000000003</c:v>
+                  <c:v>56.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>54.859000000000002</c:v>
+                  <c:v>57.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>55.932000000000002</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -837,67 +1751,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>33.21</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.376000000000001</c:v>
+                  <c:v>31.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.422999999999998</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.129000000000001</c:v>
+                  <c:v>23.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.597000000000001</c:v>
+                  <c:v>20.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.081</c:v>
+                  <c:v>24.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.824000000000002</c:v>
+                  <c:v>26.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.33</c:v>
+                  <c:v>28.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.65</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.42</c:v>
+                  <c:v>31.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.281999999999996</c:v>
+                  <c:v>32.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.417000000000002</c:v>
+                  <c:v>32.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.198</c:v>
+                  <c:v>33.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.707000000000001</c:v>
+                  <c:v>29.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.443000000000001</c:v>
+                  <c:v>27.8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.591000000000001</c:v>
+                  <c:v>25.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26.82</c:v>
+                  <c:v>26.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27.715</c:v>
+                  <c:v>26.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27.956</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31.65</c:v>
+                  <c:v>27.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31.356999999999999</c:v>
+                  <c:v>27.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1011,67 +1925,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2.0219999999999998</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3220000000000001</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4349999999999996</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.14</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.9779999999999998</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4169999999999998</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1669999999999998</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9530000000000001</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.109</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.2489999999999997</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8769999999999998</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0060000000000002</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.234</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.8550000000000004</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.867</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.8970000000000002</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.8970000000000002</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.3310000000000004</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6449999999999996</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.6880000000000002</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.133</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1188,64 +2102,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9000000000000006E-2</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5009999999999999</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.125</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6280000000000001</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.3380000000000001</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.407</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.347</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7549999999999999</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.375</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.2789999999999999</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5790000000000002</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.101</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8009999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.782</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.782</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.782</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.3109999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.782</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.782</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1459,7 +2373,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2404,7 +3318,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3479,8 +4393,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3507,8 +4461,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3609,7 +4563,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3641,10 +4595,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3965,6 +4919,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4994,7 +5959,553 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1304924</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53FC5EA1-19F7-BA69-56AD-3FF7A7A8E970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5035,7 +6546,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5078,7 +6589,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5437,11 +6948,3974 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E6FAFC-4E30-40F2-83C8-6D189724EC28}">
+  <dimension ref="B2:W62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA15" sqref="AA15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2023</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2024</v>
+      </c>
+      <c r="E2" s="6">
+        <v>2025</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2026</v>
+      </c>
+      <c r="G2" s="6">
+        <v>2027</v>
+      </c>
+      <c r="H2" s="6">
+        <v>2028</v>
+      </c>
+      <c r="I2" s="6">
+        <v>2029</v>
+      </c>
+      <c r="J2" s="6">
+        <v>2030</v>
+      </c>
+      <c r="K2" s="6">
+        <v>2031</v>
+      </c>
+      <c r="L2" s="6">
+        <v>2032</v>
+      </c>
+      <c r="M2" s="6">
+        <v>2033</v>
+      </c>
+      <c r="N2" s="6">
+        <v>2034</v>
+      </c>
+      <c r="O2" s="6">
+        <v>2035</v>
+      </c>
+      <c r="P2" s="6">
+        <v>2036</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>2037</v>
+      </c>
+      <c r="R2" s="6">
+        <v>2038</v>
+      </c>
+      <c r="S2" s="6">
+        <v>2039</v>
+      </c>
+      <c r="T2" s="6">
+        <v>2040</v>
+      </c>
+      <c r="U2" s="6">
+        <v>2041</v>
+      </c>
+      <c r="V2" s="6">
+        <v>2042</v>
+      </c>
+      <c r="W2" s="6">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="str">
+        <f>B12</f>
+        <v>mean</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:W3" si="0">C12</f>
+        <v>6.7</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:W3" si="1">D12</f>
+        <v>6.8</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" si="1"/>
+        <v>6.9</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="1"/>
+        <v>6.8</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" si="1"/>
+        <v>6.8</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" si="1"/>
+        <v>6.9</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" si="1"/>
+        <v>6.8</v>
+      </c>
+      <c r="L3" s="4">
+        <f t="shared" si="1"/>
+        <v>6.9</v>
+      </c>
+      <c r="M3" s="4">
+        <f t="shared" si="1"/>
+        <v>6.9</v>
+      </c>
+      <c r="N3" s="4">
+        <f t="shared" si="1"/>
+        <v>6.9</v>
+      </c>
+      <c r="O3" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P3" s="4">
+        <f t="shared" si="1"/>
+        <v>6.9</v>
+      </c>
+      <c r="Q3" s="4">
+        <f t="shared" si="1"/>
+        <v>6.8</v>
+      </c>
+      <c r="R3" s="4">
+        <f t="shared" si="1"/>
+        <v>6.7</v>
+      </c>
+      <c r="S3" s="4">
+        <f t="shared" si="1"/>
+        <v>6.7</v>
+      </c>
+      <c r="T3" s="4">
+        <f t="shared" si="1"/>
+        <v>6.7</v>
+      </c>
+      <c r="U3" s="4">
+        <f t="shared" si="1"/>
+        <v>6.7</v>
+      </c>
+      <c r="V3" s="4">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="W3" s="4">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" t="str">
+        <f>B56</f>
+        <v>90th_percentile</v>
+      </c>
+      <c r="C4" s="18">
+        <f t="shared" ref="C4:W4" si="2">C56</f>
+        <v>10.5</v>
+      </c>
+      <c r="D4" s="18">
+        <f t="shared" ref="D4:W4" si="3">D56</f>
+        <v>11</v>
+      </c>
+      <c r="E4" s="18">
+        <f t="shared" si="3"/>
+        <v>11.3</v>
+      </c>
+      <c r="F4" s="18">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="G4" s="18">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="H4" s="18">
+        <f t="shared" si="3"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I4" s="18">
+        <f t="shared" si="3"/>
+        <v>10.1</v>
+      </c>
+      <c r="J4" s="18">
+        <f t="shared" si="3"/>
+        <v>10.1</v>
+      </c>
+      <c r="K4" s="18">
+        <f t="shared" si="3"/>
+        <v>10.1</v>
+      </c>
+      <c r="L4" s="18">
+        <f t="shared" si="3"/>
+        <v>10.1</v>
+      </c>
+      <c r="M4" s="18">
+        <f t="shared" si="3"/>
+        <v>10.3</v>
+      </c>
+      <c r="N4" s="18">
+        <f t="shared" si="3"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="O4" s="18">
+        <f t="shared" si="3"/>
+        <v>10.5</v>
+      </c>
+      <c r="P4" s="18">
+        <f t="shared" si="3"/>
+        <v>10.4</v>
+      </c>
+      <c r="Q4" s="18">
+        <f t="shared" si="3"/>
+        <v>10.6</v>
+      </c>
+      <c r="R4" s="18">
+        <f t="shared" si="3"/>
+        <v>10.7</v>
+      </c>
+      <c r="S4" s="18">
+        <f t="shared" si="3"/>
+        <v>10.8</v>
+      </c>
+      <c r="T4" s="18">
+        <f t="shared" si="3"/>
+        <v>10.7</v>
+      </c>
+      <c r="U4" s="18">
+        <f t="shared" si="3"/>
+        <v>10.5</v>
+      </c>
+      <c r="V4" s="18">
+        <f t="shared" si="3"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="W4" s="18">
+        <f t="shared" si="3"/>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="14">
+        <v>2023</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2024</v>
+      </c>
+      <c r="E8" s="14">
+        <v>2025</v>
+      </c>
+      <c r="F8" s="14">
+        <v>2026</v>
+      </c>
+      <c r="G8" s="14">
+        <v>2027</v>
+      </c>
+      <c r="H8" s="14">
+        <v>2028</v>
+      </c>
+      <c r="I8" s="14">
+        <v>2029</v>
+      </c>
+      <c r="J8" s="14">
+        <v>2030</v>
+      </c>
+      <c r="K8" s="14">
+        <v>2031</v>
+      </c>
+      <c r="L8" s="14">
+        <v>2032</v>
+      </c>
+      <c r="M8" s="14">
+        <v>2033</v>
+      </c>
+      <c r="N8" s="14">
+        <v>2034</v>
+      </c>
+      <c r="O8" s="14">
+        <v>2035</v>
+      </c>
+      <c r="P8" s="14">
+        <v>2036</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>2037</v>
+      </c>
+      <c r="R8" s="14">
+        <v>2038</v>
+      </c>
+      <c r="S8" s="14">
+        <v>2039</v>
+      </c>
+      <c r="T8" s="14">
+        <v>2040</v>
+      </c>
+      <c r="U8" s="14">
+        <v>2041</v>
+      </c>
+      <c r="V8" s="14">
+        <v>2042</v>
+      </c>
+      <c r="W8" s="14">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="16">
+        <v>3336.9</v>
+      </c>
+      <c r="D9" s="16">
+        <v>3400.2</v>
+      </c>
+      <c r="E9" s="16">
+        <v>3442.6</v>
+      </c>
+      <c r="F9" s="16">
+        <v>3498</v>
+      </c>
+      <c r="G9" s="16">
+        <v>3508.8</v>
+      </c>
+      <c r="H9" s="16">
+        <v>3377.9</v>
+      </c>
+      <c r="I9" s="16">
+        <v>3419.6</v>
+      </c>
+      <c r="J9" s="16">
+        <v>3433.4</v>
+      </c>
+      <c r="K9" s="16">
+        <v>3411.2</v>
+      </c>
+      <c r="L9" s="16">
+        <v>3435.1</v>
+      </c>
+      <c r="M9" s="16">
+        <v>3459.4</v>
+      </c>
+      <c r="N9" s="16">
+        <v>3438.9</v>
+      </c>
+      <c r="O9" s="16">
+        <v>3495.5</v>
+      </c>
+      <c r="P9" s="16">
+        <v>3455.8</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>3396.2</v>
+      </c>
+      <c r="R9" s="16">
+        <v>3370.7</v>
+      </c>
+      <c r="S9" s="16">
+        <v>3354.1</v>
+      </c>
+      <c r="T9" s="16">
+        <v>3338.9</v>
+      </c>
+      <c r="U9" s="16">
+        <v>3335.6</v>
+      </c>
+      <c r="V9" s="16">
+        <v>3273.7</v>
+      </c>
+      <c r="W9" s="16">
+        <v>3249.4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="16">
+        <v>4574.7</v>
+      </c>
+      <c r="D10" s="16">
+        <v>5007.6000000000004</v>
+      </c>
+      <c r="E10" s="16">
+        <v>5363.1</v>
+      </c>
+      <c r="F10" s="16">
+        <v>5836.3</v>
+      </c>
+      <c r="G10" s="16">
+        <v>6136.4</v>
+      </c>
+      <c r="H10" s="16">
+        <v>5279.5</v>
+      </c>
+      <c r="I10" s="16">
+        <v>5697.9</v>
+      </c>
+      <c r="J10" s="16">
+        <v>6004.6</v>
+      </c>
+      <c r="K10" s="16">
+        <v>5395.2</v>
+      </c>
+      <c r="L10" s="16">
+        <v>5382.7</v>
+      </c>
+      <c r="M10" s="16">
+        <v>5610.5</v>
+      </c>
+      <c r="N10" s="16">
+        <v>5648.4</v>
+      </c>
+      <c r="O10" s="16">
+        <v>6148.8</v>
+      </c>
+      <c r="P10" s="16">
+        <v>6004.1</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>4543.3999999999996</v>
+      </c>
+      <c r="R10" s="16">
+        <v>4178.7</v>
+      </c>
+      <c r="S10" s="16">
+        <v>4231.7</v>
+      </c>
+      <c r="T10" s="16">
+        <v>4216.6000000000004</v>
+      </c>
+      <c r="U10" s="16">
+        <v>4219.7</v>
+      </c>
+      <c r="V10" s="16">
+        <v>3550.3</v>
+      </c>
+      <c r="W10" s="16">
+        <v>3351.2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="D11" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="E11" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="F11" s="7">
+        <v>7</v>
+      </c>
+      <c r="G11" s="7">
+        <v>7</v>
+      </c>
+      <c r="H11" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="I11" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="J11" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="K11" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="L11" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="M11" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="N11" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="O11" s="7">
+        <v>7</v>
+      </c>
+      <c r="P11" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="R11" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="S11" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="T11" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="U11" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="V11" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="W11" s="7">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="17">
+        <v>6.7</v>
+      </c>
+      <c r="D12" s="17">
+        <v>6.8</v>
+      </c>
+      <c r="E12" s="17">
+        <v>6.9</v>
+      </c>
+      <c r="F12" s="17">
+        <v>7</v>
+      </c>
+      <c r="G12" s="17">
+        <v>7</v>
+      </c>
+      <c r="H12" s="17">
+        <v>6.8</v>
+      </c>
+      <c r="I12" s="17">
+        <v>6.8</v>
+      </c>
+      <c r="J12" s="17">
+        <v>6.9</v>
+      </c>
+      <c r="K12" s="17">
+        <v>6.8</v>
+      </c>
+      <c r="L12" s="17">
+        <v>6.9</v>
+      </c>
+      <c r="M12" s="17">
+        <v>6.9</v>
+      </c>
+      <c r="N12" s="17">
+        <v>6.9</v>
+      </c>
+      <c r="O12" s="17">
+        <v>7</v>
+      </c>
+      <c r="P12" s="17">
+        <v>6.9</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>6.8</v>
+      </c>
+      <c r="R12" s="17">
+        <v>6.7</v>
+      </c>
+      <c r="S12" s="17">
+        <v>6.7</v>
+      </c>
+      <c r="T12" s="17">
+        <v>6.7</v>
+      </c>
+      <c r="U12" s="17">
+        <v>6.7</v>
+      </c>
+      <c r="V12" s="17">
+        <v>6.5</v>
+      </c>
+      <c r="W12" s="17">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="E13" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="F13" s="7">
+        <v>7</v>
+      </c>
+      <c r="G13" s="7">
+        <v>7</v>
+      </c>
+      <c r="H13" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="I13" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="J13" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="K13" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="L13" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="M13" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="N13" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="O13" s="7">
+        <v>7</v>
+      </c>
+      <c r="P13" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="R13" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="S13" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="T13" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="U13" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="V13" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="W13" s="7">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7">
+        <v>14.3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>15.4</v>
+      </c>
+      <c r="E14" s="7">
+        <v>16.3</v>
+      </c>
+      <c r="F14" s="7">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G14" s="7">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
+        <v>19</v>
+      </c>
+      <c r="I14" s="7">
+        <v>20.5</v>
+      </c>
+      <c r="J14" s="7">
+        <v>21.5</v>
+      </c>
+      <c r="K14" s="7">
+        <v>20.6</v>
+      </c>
+      <c r="L14" s="7">
+        <v>22</v>
+      </c>
+      <c r="M14" s="7">
+        <v>23.5</v>
+      </c>
+      <c r="N14" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="O14" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="P14" s="7">
+        <v>27.8</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>25.6</v>
+      </c>
+      <c r="R14" s="7">
+        <v>16.3</v>
+      </c>
+      <c r="S14" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="T14" s="7">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="U14" s="7">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="V14" s="7">
+        <v>17</v>
+      </c>
+      <c r="W14" s="7">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D15" s="7">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7">
+        <v>10.7</v>
+      </c>
+      <c r="F15" s="7">
+        <v>11.7</v>
+      </c>
+      <c r="G15" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="H15" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="I15" s="7">
+        <v>11.4</v>
+      </c>
+      <c r="J15" s="7">
+        <v>12</v>
+      </c>
+      <c r="K15" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="L15" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="M15" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="N15" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="O15" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="P15" s="7">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="R15" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="S15" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="T15" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="U15" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="V15" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="W15" s="7">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="S16" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="T16" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="U16" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="V16" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="W16" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="7">
+        <v>45.4</v>
+      </c>
+      <c r="D17" s="7">
+        <v>46.6</v>
+      </c>
+      <c r="E17" s="7">
+        <v>47.6</v>
+      </c>
+      <c r="F17" s="7">
+        <v>48.9</v>
+      </c>
+      <c r="G17" s="7">
+        <v>50</v>
+      </c>
+      <c r="H17" s="7">
+        <v>48.1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>49.4</v>
+      </c>
+      <c r="J17" s="7">
+        <v>50.5</v>
+      </c>
+      <c r="K17" s="7">
+        <v>48.2</v>
+      </c>
+      <c r="L17" s="7">
+        <v>47.8</v>
+      </c>
+      <c r="M17" s="7">
+        <v>48.5</v>
+      </c>
+      <c r="N17" s="7">
+        <v>48.9</v>
+      </c>
+      <c r="O17" s="7">
+        <v>50.2</v>
+      </c>
+      <c r="P17" s="7">
+        <v>50.2</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>44.4</v>
+      </c>
+      <c r="R17" s="7">
+        <v>42.9</v>
+      </c>
+      <c r="S17" s="7">
+        <v>43.4</v>
+      </c>
+      <c r="T17" s="7">
+        <v>43.5</v>
+      </c>
+      <c r="U17" s="7">
+        <v>43.6</v>
+      </c>
+      <c r="V17" s="7">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="W17" s="7">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="7">
+        <v>500</v>
+      </c>
+      <c r="D18" s="7">
+        <v>500</v>
+      </c>
+      <c r="E18" s="7">
+        <v>500</v>
+      </c>
+      <c r="F18" s="7">
+        <v>500</v>
+      </c>
+      <c r="G18" s="7">
+        <v>500</v>
+      </c>
+      <c r="H18" s="7">
+        <v>500</v>
+      </c>
+      <c r="I18" s="7">
+        <v>500</v>
+      </c>
+      <c r="J18" s="7">
+        <v>500</v>
+      </c>
+      <c r="K18" s="7">
+        <v>500</v>
+      </c>
+      <c r="L18" s="7">
+        <v>500</v>
+      </c>
+      <c r="M18" s="7">
+        <v>500</v>
+      </c>
+      <c r="N18" s="7">
+        <v>500</v>
+      </c>
+      <c r="O18" s="7">
+        <v>500</v>
+      </c>
+      <c r="P18" s="7">
+        <v>500</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>500</v>
+      </c>
+      <c r="R18" s="7">
+        <v>500</v>
+      </c>
+      <c r="S18" s="7">
+        <v>500</v>
+      </c>
+      <c r="T18" s="7">
+        <v>500</v>
+      </c>
+      <c r="U18" s="7">
+        <v>500</v>
+      </c>
+      <c r="V18" s="7">
+        <v>500</v>
+      </c>
+      <c r="W18" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="D19" s="7">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E19" s="7">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F19" s="7">
+        <v>18.7</v>
+      </c>
+      <c r="G19" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="H19" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>21.7</v>
+      </c>
+      <c r="J19" s="7">
+        <v>22.8</v>
+      </c>
+      <c r="K19" s="7">
+        <v>21.9</v>
+      </c>
+      <c r="L19" s="7">
+        <v>23.4</v>
+      </c>
+      <c r="M19" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="N19" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="O19" s="7">
+        <v>27.9</v>
+      </c>
+      <c r="P19" s="7">
+        <v>29.4</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>27.2</v>
+      </c>
+      <c r="R19" s="7">
+        <v>18</v>
+      </c>
+      <c r="S19" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="T19" s="7">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="U19" s="7">
+        <v>18.7</v>
+      </c>
+      <c r="V19" s="7">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="W19" s="7">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="L20" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="O20" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="P20" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="R20" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="S20" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="T20" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="U20" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="V20" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="W20" s="7">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="D21" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="E21" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="F21" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="G21" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="H21" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="I21" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="J21" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="K21" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="L21" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="M21" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="N21" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="O21" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="P21" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="R21" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="S21" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="T21" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="U21" s="7">
+        <v>6</v>
+      </c>
+      <c r="V21" s="7">
+        <v>6</v>
+      </c>
+      <c r="W21" s="7">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="D22" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="E22" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="F22" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="G22" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="H22" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="I22" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="J22" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="K22" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="L22" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="M22" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="N22" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="O22" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="P22" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="R22" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="S22" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="T22" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="U22" s="7">
+        <v>6</v>
+      </c>
+      <c r="V22" s="7">
+        <v>6</v>
+      </c>
+      <c r="W22" s="7">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="G23" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="H23" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="J23" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K23" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L23" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M23" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N23" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O23" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P23" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="R23" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="S23" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="T23" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="U23" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="V23" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="W23" s="7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="F24" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="G24" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="H24" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J24" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K24" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L24" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M24" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N24" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="O24" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="P24" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="R24" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="S24" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="T24" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="U24" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="V24" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="W24" s="7">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="F25" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="G25" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J25" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K25" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L25" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="O25" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="P25" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="R25" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="S25" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="T25" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="U25" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="V25" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="W25" s="7">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="E26" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="F26" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="G26" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J26" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="K26" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="L26" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="O26" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="P26" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="R26" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="S26" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="T26" s="7">
+        <v>3</v>
+      </c>
+      <c r="U26" s="7">
+        <v>3</v>
+      </c>
+      <c r="V26" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="W26" s="7">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="7">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F27" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G27" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H27" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I27" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="J27" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="K27" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="L27" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="M27" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="N27" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="O27" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="P27" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="R27" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="S27" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="T27" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="U27" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="V27" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="W27" s="7">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3</v>
+      </c>
+      <c r="E28" s="7">
+        <v>3</v>
+      </c>
+      <c r="F28" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="G28" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="H28" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="J28" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="K28" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="L28" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="M28" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="N28" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="O28" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="P28" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="R28" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="S28" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="T28" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="U28" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="V28" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="W28" s="7">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="7">
+        <v>3</v>
+      </c>
+      <c r="D29" s="7">
+        <v>3</v>
+      </c>
+      <c r="E29" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="F29" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="G29" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="H29" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="I29" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="J29" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="K29" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="L29" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="M29" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="N29" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="O29" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="P29" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="R29" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="S29" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="T29" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="U29" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="V29" s="7">
+        <v>4</v>
+      </c>
+      <c r="W29" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="7">
+        <v>3</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="E30" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="F30" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="G30" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="I30" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="J30" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="K30" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="L30" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="M30" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="N30" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="O30" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="P30" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="R30" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="S30" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="T30" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="U30" s="7">
+        <v>4</v>
+      </c>
+      <c r="V30" s="7">
+        <v>4</v>
+      </c>
+      <c r="W30" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="E31" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="F31" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="G31" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="J31" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="K31" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="L31" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="M31" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="N31" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="O31" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="P31" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="R31" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="S31" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="T31" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="U31" s="7">
+        <v>4</v>
+      </c>
+      <c r="V31" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W31" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="7">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="E32" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="F32" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="G32" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="J32" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="K32" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="L32" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="M32" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="N32" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="O32" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="P32" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>4</v>
+      </c>
+      <c r="R32" s="7">
+        <v>4</v>
+      </c>
+      <c r="S32" s="7">
+        <v>4</v>
+      </c>
+      <c r="T32" s="7">
+        <v>4</v>
+      </c>
+      <c r="U32" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V32" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W32" s="7">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="D33" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="E33" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="F33" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="G33" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="H33" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="I33" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="J33" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="K33" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="L33" s="7">
+        <v>4</v>
+      </c>
+      <c r="M33" s="7">
+        <v>4</v>
+      </c>
+      <c r="N33" s="7">
+        <v>4</v>
+      </c>
+      <c r="O33" s="7">
+        <v>4</v>
+      </c>
+      <c r="P33" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R33" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S33" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T33" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="U33" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="V33" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="W33" s="7">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="7">
+        <v>4</v>
+      </c>
+      <c r="D34" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E34" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F34" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="G34" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="H34" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="I34" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="J34" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="K34" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="L34" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="M34" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="N34" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="O34" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P34" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R34" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S34" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T34" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="U34" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="V34" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="W34" s="7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="7">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E35" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="F35" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="G35" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="H35" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="I35" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="J35" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="K35" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="L35" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="M35" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="N35" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="O35" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P35" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R35" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="S35" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T35" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U35" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="V35" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="W35" s="7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="D36" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E36" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F36" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="G36" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="H36" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I36" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="J36" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K36" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L36" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="M36" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="N36" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="O36" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P36" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R36" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="S36" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T36" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="U36" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V36" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="W36" s="7">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D37" s="7">
+        <v>5</v>
+      </c>
+      <c r="E37" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="F37" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G37" s="7">
+        <v>5</v>
+      </c>
+      <c r="H37" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="I37" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J37" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="K37" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="L37" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M37" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N37" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="O37" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P37" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="R37" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="S37" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T37" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="U37" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="V37" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="W37" s="7">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="D38" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="E38" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="F38" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G38" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="H38" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="I38" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="J38" s="7">
+        <v>5</v>
+      </c>
+      <c r="K38" s="7">
+        <v>5</v>
+      </c>
+      <c r="L38" s="7">
+        <v>5</v>
+      </c>
+      <c r="M38" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N38" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="O38" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P38" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="R38" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S38" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T38" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="U38" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="V38" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="W38" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="D39" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="E39" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="F39" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="G39" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="H39" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="I39" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="J39" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="K39" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="L39" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="M39" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="N39" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="O39" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="P39" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="R39" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="S39" s="7">
+        <v>5</v>
+      </c>
+      <c r="T39" s="7">
+        <v>5</v>
+      </c>
+      <c r="U39" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="V39" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="W39" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="D40" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="E40" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="F40" s="7">
+        <v>6</v>
+      </c>
+      <c r="G40" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="H40" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="I40" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="J40" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="K40" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="L40" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="M40" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="N40" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="O40" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="P40" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="R40" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="S40" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="T40" s="7">
+        <v>5</v>
+      </c>
+      <c r="U40" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="V40" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="W40" s="7">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="D41" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="E41" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="F41" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="G41" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="H41" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="I41" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="J41" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="K41" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="L41" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="M41" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="N41" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="O41" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="P41" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>6</v>
+      </c>
+      <c r="R41" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="S41" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="T41" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="U41" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="V41" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="W41" s="7">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="D42" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="E42" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="F42" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="G42" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="H42" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="I42" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="J42" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="K42" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="L42" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="M42" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="N42" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="O42" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="P42" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="R42" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="S42" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="T42" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="U42" s="7">
+        <v>6</v>
+      </c>
+      <c r="V42" s="7">
+        <v>6</v>
+      </c>
+      <c r="W42" s="7">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="D43" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="E43" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="F43" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="G43" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="H43" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="I43" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="J43" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="K43" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="L43" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="M43" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="N43" s="7">
+        <v>7</v>
+      </c>
+      <c r="O43" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="P43" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="R43" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="S43" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="T43" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="U43" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="V43" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="W43" s="7">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="D44" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="E44" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="F44" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="G44" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="H44" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="I44" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="J44" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="K44" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="L44" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="M44" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="N44" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="O44" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="P44" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="R44" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="S44" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="T44" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="U44" s="7">
+        <v>7</v>
+      </c>
+      <c r="V44" s="7">
+        <v>7</v>
+      </c>
+      <c r="W44" s="7">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="D45" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="E45" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="F45" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="G45" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="H45" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="I45" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="J45" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="K45" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="L45" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="M45" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="N45" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="O45" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="P45" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="R45" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="S45" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="T45" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="U45" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="V45" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="W45" s="7">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B46" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D46" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E46" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="F46" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="G46" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="H46" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="I46" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="J46" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="K46" s="7">
+        <v>8</v>
+      </c>
+      <c r="L46" s="7">
+        <v>8</v>
+      </c>
+      <c r="M46" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="N46" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O46" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="P46" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="R46" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="S46" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="T46" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="U46" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="V46" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="W46" s="7">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="D47" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="E47" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F47" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G47" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="H47" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="I47" s="7">
+        <v>8</v>
+      </c>
+      <c r="J47" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="K47" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L47" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M47" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="N47" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="O47" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="P47" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="R47" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="S47" s="7">
+        <v>8</v>
+      </c>
+      <c r="T47" s="7">
+        <v>8</v>
+      </c>
+      <c r="U47" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="V47" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="W47" s="7">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="D48" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="E48" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="F48" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G48" s="7">
+        <v>8</v>
+      </c>
+      <c r="H48" s="7">
+        <v>8</v>
+      </c>
+      <c r="I48" s="7">
+        <v>8</v>
+      </c>
+      <c r="J48" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K48" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L48" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M48" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="N48" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="O48" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="P48" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="R48" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="S48" s="7">
+        <v>8</v>
+      </c>
+      <c r="T48" s="7">
+        <v>8</v>
+      </c>
+      <c r="U48" s="7">
+        <v>8</v>
+      </c>
+      <c r="V48" s="7">
+        <v>8</v>
+      </c>
+      <c r="W48" s="7">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="D49" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="E49" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F49" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G49" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="H49" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I49" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J49" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="K49" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="L49" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="M49" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N49" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O49" s="7">
+        <v>9</v>
+      </c>
+      <c r="P49" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="R49" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="S49" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="T49" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="U49" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="V49" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="W49" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="7">
+        <v>9</v>
+      </c>
+      <c r="D50" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E50" s="7">
+        <v>9</v>
+      </c>
+      <c r="F50" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G50" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="H50" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I50" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J50" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="K50" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="L50" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M50" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N50" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="O50" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="P50" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="R50" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="S50" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="T50" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="U50" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="V50" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="W50" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="D51" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="E51" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="F51" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="G51" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H51" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="I51" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J51" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K51" s="7">
+        <v>9</v>
+      </c>
+      <c r="L51" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="M51" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N51" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="O51" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="P51" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="R51" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="S51" s="7">
+        <v>9</v>
+      </c>
+      <c r="T51" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="U51" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="V51" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="W51" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="D52" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E52" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="F52" s="7">
+        <v>9.9</v>
+      </c>
+      <c r="G52" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="H52" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I52" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J52" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="K52" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="L52" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M52" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="N52" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="O52" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="P52" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="R52" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="S52" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="T52" s="7">
+        <v>9</v>
+      </c>
+      <c r="U52" s="7">
+        <v>9</v>
+      </c>
+      <c r="V52" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="W52" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="D53" s="7">
+        <v>10.3</v>
+      </c>
+      <c r="E53" s="7">
+        <v>10.3</v>
+      </c>
+      <c r="F53" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="G53" s="7">
+        <v>10</v>
+      </c>
+      <c r="H53" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="I53" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="J53" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K53" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="L53" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="M53" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="N53" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O53" s="7">
+        <v>9.9</v>
+      </c>
+      <c r="P53" s="7">
+        <v>9.9</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>9.9</v>
+      </c>
+      <c r="R53" s="7">
+        <v>10</v>
+      </c>
+      <c r="S53" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="T53" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="U53" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="V53" s="7">
+        <v>9</v>
+      </c>
+      <c r="W53" s="7">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="D54" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="E54" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="F54" s="7">
+        <v>10.9</v>
+      </c>
+      <c r="G54" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="H54" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="I54" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J54" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K54" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="L54" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="M54" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N54" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O54" s="7">
+        <v>10</v>
+      </c>
+      <c r="P54" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>10</v>
+      </c>
+      <c r="R54" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="S54" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="T54" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="U54" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="V54" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="W54" s="7">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="D55" s="7">
+        <v>10.7</v>
+      </c>
+      <c r="E55" s="7">
+        <v>11</v>
+      </c>
+      <c r="F55" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="G55" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="H55" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I55" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="J55" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K55" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="L55" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="M55" s="7">
+        <v>9.9</v>
+      </c>
+      <c r="N55" s="7">
+        <v>10</v>
+      </c>
+      <c r="O55" s="7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="P55" s="7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>10.3</v>
+      </c>
+      <c r="R55" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="S55" s="7">
+        <v>10.3</v>
+      </c>
+      <c r="T55" s="7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="U55" s="7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="V55" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="W55" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B56" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="17">
+        <v>10.5</v>
+      </c>
+      <c r="D56" s="17">
+        <v>11</v>
+      </c>
+      <c r="E56" s="17">
+        <v>11.3</v>
+      </c>
+      <c r="F56" s="17">
+        <v>12</v>
+      </c>
+      <c r="G56" s="17">
+        <v>12</v>
+      </c>
+      <c r="H56" s="17">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I56" s="17">
+        <v>10.1</v>
+      </c>
+      <c r="J56" s="17">
+        <v>10.1</v>
+      </c>
+      <c r="K56" s="17">
+        <v>10.1</v>
+      </c>
+      <c r="L56" s="17">
+        <v>10.1</v>
+      </c>
+      <c r="M56" s="17">
+        <v>10.3</v>
+      </c>
+      <c r="N56" s="17">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="O56" s="17">
+        <v>10.5</v>
+      </c>
+      <c r="P56" s="17">
+        <v>10.4</v>
+      </c>
+      <c r="Q56" s="17">
+        <v>10.6</v>
+      </c>
+      <c r="R56" s="17">
+        <v>10.7</v>
+      </c>
+      <c r="S56" s="17">
+        <v>10.8</v>
+      </c>
+      <c r="T56" s="17">
+        <v>10.7</v>
+      </c>
+      <c r="U56" s="17">
+        <v>10.5</v>
+      </c>
+      <c r="V56" s="17">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="W56" s="17">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="D57" s="7">
+        <v>12</v>
+      </c>
+      <c r="E57" s="7">
+        <v>12.6</v>
+      </c>
+      <c r="F57" s="7">
+        <v>13.5</v>
+      </c>
+      <c r="G57" s="7">
+        <v>14.2</v>
+      </c>
+      <c r="H57" s="7">
+        <v>13.4</v>
+      </c>
+      <c r="I57" s="7">
+        <v>13.7</v>
+      </c>
+      <c r="J57" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="K57" s="7">
+        <v>12</v>
+      </c>
+      <c r="L57" s="7">
+        <v>12.1</v>
+      </c>
+      <c r="M57" s="7">
+        <v>11.8</v>
+      </c>
+      <c r="N57" s="7">
+        <v>11.7</v>
+      </c>
+      <c r="O57" s="7">
+        <v>11.9</v>
+      </c>
+      <c r="P57" s="7">
+        <v>11.8</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>11.9</v>
+      </c>
+      <c r="R57" s="7">
+        <v>12</v>
+      </c>
+      <c r="S57" s="7">
+        <v>12.1</v>
+      </c>
+      <c r="T57" s="7">
+        <v>12</v>
+      </c>
+      <c r="U57" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="V57" s="7">
+        <v>11.1</v>
+      </c>
+      <c r="W57" s="7">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="D58" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="E58" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="F58" s="7">
+        <v>13.8</v>
+      </c>
+      <c r="G58" s="7">
+        <v>14.8</v>
+      </c>
+      <c r="H58" s="7">
+        <v>15</v>
+      </c>
+      <c r="I58" s="7">
+        <v>15</v>
+      </c>
+      <c r="J58" s="7">
+        <v>14.6</v>
+      </c>
+      <c r="K58" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="L58" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="M58" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="N58" s="7">
+        <v>12.6</v>
+      </c>
+      <c r="O58" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="P58" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="R58" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="S58" s="7">
+        <v>12.6</v>
+      </c>
+      <c r="T58" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="U58" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="V58" s="7">
+        <v>11.4</v>
+      </c>
+      <c r="W58" s="7">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="D59" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="E59" s="7">
+        <v>14</v>
+      </c>
+      <c r="F59" s="7">
+        <v>14.6</v>
+      </c>
+      <c r="G59" s="7">
+        <v>15.6</v>
+      </c>
+      <c r="H59" s="7">
+        <v>15.4</v>
+      </c>
+      <c r="I59" s="7">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J59" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K59" s="7">
+        <v>15.4</v>
+      </c>
+      <c r="L59" s="7">
+        <v>13.1</v>
+      </c>
+      <c r="M59" s="7">
+        <v>13.2</v>
+      </c>
+      <c r="N59" s="7">
+        <v>13.1</v>
+      </c>
+      <c r="O59" s="7">
+        <v>13.2</v>
+      </c>
+      <c r="P59" s="7">
+        <v>13.3</v>
+      </c>
+      <c r="Q59" s="7">
+        <v>13.3</v>
+      </c>
+      <c r="R59" s="7">
+        <v>13.4</v>
+      </c>
+      <c r="S59" s="7">
+        <v>13.6</v>
+      </c>
+      <c r="T59" s="7">
+        <v>13.7</v>
+      </c>
+      <c r="U59" s="7">
+        <v>13.9</v>
+      </c>
+      <c r="V59" s="7">
+        <v>13</v>
+      </c>
+      <c r="W59" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="D60" s="7">
+        <v>13.3</v>
+      </c>
+      <c r="E60" s="7">
+        <v>14.2</v>
+      </c>
+      <c r="F60" s="7">
+        <v>15.1</v>
+      </c>
+      <c r="G60" s="7">
+        <v>15.9</v>
+      </c>
+      <c r="H60" s="7">
+        <v>15.8</v>
+      </c>
+      <c r="I60" s="7">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J60" s="7">
+        <v>18.3</v>
+      </c>
+      <c r="K60" s="7">
+        <v>17.3</v>
+      </c>
+      <c r="L60" s="7">
+        <v>14.2</v>
+      </c>
+      <c r="M60" s="7">
+        <v>14.3</v>
+      </c>
+      <c r="N60" s="7">
+        <v>13.5</v>
+      </c>
+      <c r="O60" s="7">
+        <v>13.7</v>
+      </c>
+      <c r="P60" s="7">
+        <v>13.5</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>13.5</v>
+      </c>
+      <c r="R60" s="7">
+        <v>13.6</v>
+      </c>
+      <c r="S60" s="7">
+        <v>13.8</v>
+      </c>
+      <c r="T60" s="7">
+        <v>13.9</v>
+      </c>
+      <c r="U60" s="7">
+        <v>14.1</v>
+      </c>
+      <c r="V60" s="7">
+        <v>13.4</v>
+      </c>
+      <c r="W60" s="7">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B61" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="7">
+        <v>13.1</v>
+      </c>
+      <c r="D61" s="7">
+        <v>14.2</v>
+      </c>
+      <c r="E61" s="7">
+        <v>15.5</v>
+      </c>
+      <c r="F61" s="7">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G61" s="7">
+        <v>17.3</v>
+      </c>
+      <c r="H61" s="7">
+        <v>16.8</v>
+      </c>
+      <c r="I61" s="7">
+        <v>18.3</v>
+      </c>
+      <c r="J61" s="7">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K61" s="7">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="L61" s="7">
+        <v>21</v>
+      </c>
+      <c r="M61" s="7">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="N61" s="7">
+        <v>21.3</v>
+      </c>
+      <c r="O61" s="7">
+        <v>22.6</v>
+      </c>
+      <c r="P61" s="7">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="Q61" s="7">
+        <v>15.2</v>
+      </c>
+      <c r="R61" s="7">
+        <v>14.7</v>
+      </c>
+      <c r="S61" s="7">
+        <v>14.9</v>
+      </c>
+      <c r="T61" s="7">
+        <v>15.1</v>
+      </c>
+      <c r="U61" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="V61" s="7">
+        <v>14.4</v>
+      </c>
+      <c r="W61" s="7">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BA63E4-6CF1-4187-8976-31CAA0E74EAF}">
   <dimension ref="B2:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W35" sqref="W35"/>
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5452,67 +10926,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>2023</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>2024</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="13">
         <v>2025</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <v>2026</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="13">
         <v>2027</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <v>2028</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <v>2029</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="13">
         <v>2030</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="13">
         <v>2031</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="13">
         <v>2032</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="13">
         <v>2033</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P2" s="13">
         <v>2034</v>
       </c>
-      <c r="Q2" s="14">
+      <c r="Q2" s="13">
         <v>2035</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="13">
         <v>2036</v>
       </c>
-      <c r="S2" s="14">
+      <c r="S2" s="13">
         <v>2037</v>
       </c>
-      <c r="T2" s="14">
+      <c r="T2" s="13">
         <v>2038</v>
       </c>
-      <c r="U2" s="14">
+      <c r="U2" s="13">
         <v>2039</v>
       </c>
-      <c r="V2" s="14">
+      <c r="V2" s="13">
         <v>2040</v>
       </c>
-      <c r="W2" s="14">
+      <c r="W2" s="13">
         <v>2041</v>
       </c>
-      <c r="X2" s="14">
+      <c r="X2" s="13">
         <v>2042</v>
       </c>
-      <c r="Y2" s="14">
+      <c r="Y2" s="13">
         <v>2043</v>
       </c>
     </row>
@@ -5527,146 +11001,146 @@
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
         <v>4</v>
       </c>
       <c r="E4" s="7">
-        <v>23.268000000000001</v>
+        <v>23.6</v>
       </c>
       <c r="F4" s="7">
-        <v>22.85</v>
+        <v>23.2</v>
       </c>
       <c r="G4" s="7">
-        <v>20.745000000000001</v>
+        <v>22.2</v>
       </c>
       <c r="H4" s="7">
-        <v>20.346</v>
+        <v>21.8</v>
       </c>
       <c r="I4" s="7">
-        <v>19.663</v>
+        <v>21.2</v>
       </c>
       <c r="J4" s="7">
-        <v>19.134</v>
+        <v>21</v>
       </c>
       <c r="K4" s="7">
-        <v>18.489000000000001</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L4" s="7">
-        <v>19.166</v>
+        <v>21.2</v>
       </c>
       <c r="M4" s="7">
-        <v>18.757000000000001</v>
+        <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>17.803000000000001</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="O4" s="7">
-        <v>17.881</v>
+        <v>19.8</v>
       </c>
       <c r="P4" s="7">
-        <v>16.545000000000002</v>
+        <v>19.2</v>
       </c>
       <c r="Q4" s="7">
-        <v>15.858000000000001</v>
+        <v>19</v>
       </c>
       <c r="R4" s="7">
-        <v>15.768000000000001</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="S4" s="7">
-        <v>14.32</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="T4" s="7">
-        <v>13.941000000000001</v>
+        <v>17</v>
       </c>
       <c r="U4" s="7">
-        <v>13.651999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="V4" s="7">
-        <v>12.505000000000001</v>
+        <v>15.4</v>
       </c>
       <c r="W4" s="7">
-        <v>9.8729999999999993</v>
+        <v>12.8</v>
       </c>
       <c r="X4" s="7">
-        <v>9.0220000000000002</v>
+        <v>11.4</v>
       </c>
       <c r="Y4" s="7">
-        <v>8.7959999999999994</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
@@ -5675,72 +11149,72 @@
         <v>8</v>
       </c>
       <c r="E5" s="7">
-        <v>41.500999999999998</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="F5" s="7">
-        <v>42.383000000000003</v>
+        <v>39.6</v>
       </c>
       <c r="G5" s="7">
-        <v>47.218000000000004</v>
+        <v>42.8</v>
       </c>
       <c r="H5" s="7">
-        <v>48.884</v>
+        <v>44.4</v>
       </c>
       <c r="I5" s="7">
-        <v>52.637999999999998</v>
+        <v>48.2</v>
       </c>
       <c r="J5" s="7">
-        <v>49.738999999999997</v>
+        <v>48.4</v>
       </c>
       <c r="K5" s="7">
-        <v>48.182000000000002</v>
+        <v>47.4</v>
       </c>
       <c r="L5" s="7">
-        <v>43.143999999999998</v>
+        <v>44.6</v>
       </c>
       <c r="M5" s="7">
-        <v>44.137</v>
+        <v>43.6</v>
       </c>
       <c r="N5" s="7">
-        <v>43.773000000000003</v>
+        <v>44</v>
       </c>
       <c r="O5" s="7">
-        <v>41.584000000000003</v>
+        <v>42.6</v>
       </c>
       <c r="P5" s="7">
-        <v>42.753999999999998</v>
+        <v>43.8</v>
       </c>
       <c r="Q5" s="7">
-        <v>42.131</v>
+        <v>42.6</v>
       </c>
       <c r="R5" s="7">
-        <v>45.57</v>
+        <v>47.2</v>
       </c>
       <c r="S5" s="7">
-        <v>50.569000000000003</v>
+        <v>50.2</v>
       </c>
       <c r="T5" s="7">
-        <v>51.787999999999997</v>
+        <v>52</v>
       </c>
       <c r="U5" s="7">
-        <v>50.85</v>
+        <v>51.8</v>
       </c>
       <c r="V5" s="7">
-        <v>50.667000000000002</v>
+        <v>53</v>
       </c>
       <c r="W5" s="7">
-        <v>53.215000000000003</v>
+        <v>56.2</v>
       </c>
       <c r="X5" s="7">
-        <v>54.859000000000002</v>
+        <v>57.8</v>
       </c>
       <c r="Y5" s="7">
-        <v>55.932000000000002</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C6" s="7">
         <v>8</v>
@@ -5749,72 +11223,72 @@
         <v>12</v>
       </c>
       <c r="E6" s="7">
-        <v>33.21</v>
+        <v>35</v>
       </c>
       <c r="F6" s="7">
-        <v>30.376000000000001</v>
+        <v>31.8</v>
       </c>
       <c r="G6" s="7">
-        <v>25.422999999999998</v>
+        <v>27</v>
       </c>
       <c r="H6" s="7">
-        <v>20.129000000000001</v>
+        <v>23.4</v>
       </c>
       <c r="I6" s="7">
-        <v>16.597000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="J6" s="7">
-        <v>22.081</v>
+        <v>24.4</v>
       </c>
       <c r="K6" s="7">
-        <v>24.824000000000002</v>
+        <v>26.4</v>
       </c>
       <c r="L6" s="7">
-        <v>28.33</v>
+        <v>28.6</v>
       </c>
       <c r="M6" s="7">
-        <v>28.65</v>
+        <v>30</v>
       </c>
       <c r="N6" s="7">
-        <v>30.42</v>
+        <v>31.2</v>
       </c>
       <c r="O6" s="7">
-        <v>33.281999999999996</v>
+        <v>32.6</v>
       </c>
       <c r="P6" s="7">
-        <v>33.417000000000002</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="Q6" s="7">
-        <v>34.198</v>
+        <v>33.4</v>
       </c>
       <c r="R6" s="7">
-        <v>30.707000000000001</v>
+        <v>29.6</v>
       </c>
       <c r="S6" s="7">
-        <v>27.443000000000001</v>
+        <v>27.8</v>
       </c>
       <c r="T6" s="7">
-        <v>25.591000000000001</v>
+        <v>25.8</v>
       </c>
       <c r="U6" s="7">
-        <v>26.82</v>
+        <v>26.2</v>
       </c>
       <c r="V6" s="7">
-        <v>27.715</v>
+        <v>26.2</v>
       </c>
       <c r="W6" s="7">
-        <v>27.956</v>
+        <v>25</v>
       </c>
       <c r="X6" s="7">
-        <v>31.65</v>
+        <v>27.4</v>
       </c>
       <c r="Y6" s="7">
-        <v>31.356999999999999</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C7" s="7">
         <v>12</v>
@@ -5823,161 +11297,161 @@
         <v>16</v>
       </c>
       <c r="E7" s="7">
-        <v>2.0219999999999998</v>
+        <v>3.2</v>
       </c>
       <c r="F7" s="7">
-        <v>4.3220000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="G7" s="7">
-        <v>6.4349999999999996</v>
+        <v>7.4</v>
       </c>
       <c r="H7" s="7">
-        <v>9.14</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I7" s="7">
-        <v>8.9779999999999998</v>
+        <v>8.6</v>
       </c>
       <c r="J7" s="7">
-        <v>5.4169999999999998</v>
+        <v>4.2</v>
       </c>
       <c r="K7" s="7">
-        <v>2.1669999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="L7" s="7">
-        <v>1.9530000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="M7" s="7">
-        <v>5.109</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>5.2489999999999997</v>
+        <v>3.2</v>
       </c>
       <c r="O7" s="7">
-        <v>4.8769999999999998</v>
+        <v>3.2</v>
       </c>
       <c r="P7" s="7">
-        <v>5.0060000000000002</v>
+        <v>3.6</v>
       </c>
       <c r="Q7" s="7">
-        <v>5.234</v>
+        <v>3.6</v>
       </c>
       <c r="R7" s="7">
-        <v>5.8550000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="S7" s="7">
-        <v>5.867</v>
+        <v>3.4</v>
       </c>
       <c r="T7" s="7">
-        <v>6.8970000000000002</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="U7" s="7">
-        <v>6.8970000000000002</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="V7" s="7">
-        <v>7.3310000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W7" s="7">
-        <v>6.6449999999999996</v>
+        <v>5</v>
       </c>
       <c r="X7" s="7">
-        <v>2.6880000000000002</v>
+        <v>2.6</v>
       </c>
       <c r="Y7" s="7">
-        <v>2.133</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C8" s="7">
         <v>16</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>
       </c>
       <c r="F8" s="7">
-        <v>6.9000000000000006E-2</v>
+        <v>0.2</v>
       </c>
       <c r="G8" s="7">
-        <v>0.17899999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H8" s="7">
-        <v>1.5009999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="I8" s="7">
-        <v>2.125</v>
+        <v>1.8</v>
       </c>
       <c r="J8" s="7">
-        <v>3.6280000000000001</v>
+        <v>2</v>
       </c>
       <c r="K8" s="7">
-        <v>6.3380000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="L8" s="7">
-        <v>7.407</v>
+        <v>3.8</v>
       </c>
       <c r="M8" s="7">
-        <v>3.347</v>
+        <v>2.4</v>
       </c>
       <c r="N8" s="7">
-        <v>2.7549999999999999</v>
+        <v>2</v>
       </c>
       <c r="O8" s="7">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="P8" s="7">
-        <v>2.2789999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Q8" s="7">
-        <v>2.5790000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="R8" s="7">
-        <v>2.101</v>
+        <v>1.2</v>
       </c>
       <c r="S8" s="7">
-        <v>1.8009999999999999</v>
+        <v>1</v>
       </c>
       <c r="T8" s="7">
-        <v>1.782</v>
+        <v>0.8</v>
       </c>
       <c r="U8" s="7">
-        <v>1.782</v>
+        <v>0.8</v>
       </c>
       <c r="V8" s="7">
-        <v>1.782</v>
+        <v>0.8</v>
       </c>
       <c r="W8" s="7">
-        <v>2.3109999999999999</v>
+        <v>1</v>
       </c>
       <c r="X8" s="7">
-        <v>1.782</v>
+        <v>0.8</v>
       </c>
       <c r="Y8" s="7">
-        <v>1.782</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5988,7 +11462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11916BD6-DDB7-48F0-87FB-E3D3002E203C}">
   <dimension ref="B2:W9"/>
   <sheetViews>
@@ -6004,369 +11478,369 @@
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="15">
+        <v>12</v>
+      </c>
+      <c r="C2" s="14">
         <v>2023</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>2024</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>2025</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>2026</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>2027</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="14">
         <v>2028</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="14">
         <v>2029</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="14">
         <v>2030</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="14">
         <v>2031</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="14">
         <v>2032</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="14">
         <v>2033</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="14">
         <v>2034</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="14">
         <v>2035</v>
       </c>
-      <c r="P2" s="15">
+      <c r="P2" s="14">
         <v>2036</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q2" s="14">
         <v>2037</v>
       </c>
-      <c r="R2" s="15">
+      <c r="R2" s="14">
         <v>2038</v>
       </c>
-      <c r="S2" s="15">
+      <c r="S2" s="14">
         <v>2039</v>
       </c>
-      <c r="T2" s="15">
+      <c r="T2" s="14">
         <v>2040</v>
       </c>
-      <c r="U2" s="15">
+      <c r="U2" s="14">
         <v>2041</v>
       </c>
-      <c r="V2" s="15">
+      <c r="V2" s="14">
         <v>2042</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="11">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10">
         <v>0</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>0</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>0</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>0</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>0.22</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>0.22</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>0</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>0</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>0</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="10">
         <v>0</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="10">
         <v>0</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="10">
         <v>0</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="10">
         <v>0</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="10">
         <v>0</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="10">
         <v>0</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="10">
         <v>0</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="10">
         <v>0</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="10">
         <v>0</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="10">
         <v>0</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="10">
         <v>0</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="10">
         <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="11">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10">
         <v>0</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>17.260000000000002</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>20.39</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>14.66</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>16.559999999999999</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>6.69</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>2.76</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>1.86</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>12.54</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <v>3.37</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="10">
         <v>6.06</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <v>8</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="10">
         <v>0.43</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="10">
         <v>11.16</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="10">
         <v>13.13</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="10">
         <v>6.66</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="10">
         <v>3.05</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="10">
         <v>5.61</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="10">
         <v>13.51</v>
       </c>
-      <c r="V4" s="11">
+      <c r="V4" s="10">
         <v>17.7</v>
       </c>
-      <c r="W4" s="11">
+      <c r="W4" s="10">
         <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="11">
+        <v>16</v>
+      </c>
+      <c r="C5" s="10">
         <v>0</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>0</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>0</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>0.04</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>0.12</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>0.02</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>0.25</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>0</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <v>0.62</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="10">
         <v>0</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10">
         <v>0.19</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="10">
         <v>0.02</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="10">
         <v>0.01</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="10">
         <v>0.21</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="10">
         <v>0.09</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="10">
         <v>0.05</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="10">
         <v>0.23</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="10">
         <v>0</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="11">
+        <v>17</v>
+      </c>
+      <c r="C6" s="10">
         <v>0</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>0</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>0</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>0.18</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>0</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>0.13</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>2.3199999999999998</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>0.66</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>0.63</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>0</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="10">
         <v>0.78</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <v>0</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="10">
         <v>0.52</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>0.61</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="10">
         <v>0.83</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="10">
         <v>0.65</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="10">
         <v>1.98</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="10">
         <v>0.88</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="10">
         <v>0</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="10">
         <v>0.12</v>
       </c>
-      <c r="W6" s="11">
+      <c r="W6" s="10">
         <v>0.54</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="O8" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="13">
+        <v>10</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="O8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="12">
         <v>124901</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="T9" s="10"/>
+      <c r="T9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6377,7 +11851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D71F1F-F2A2-4EEE-B814-99DF172D0F11}">
   <dimension ref="B2:W9"/>
   <sheetViews>
@@ -6393,7 +11867,7 @@
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5">
         <v>2024</v>
@@ -6456,80 +11930,80 @@
         <v>2043</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="9">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8">
         <v>2495990</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>2496260</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>2263340</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>2457460</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>2032710</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>709900</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>182880</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>1477210</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>1138610</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>856110</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>1635230</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <v>36700</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="8">
         <v>1998590</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="8">
         <v>1754210</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="8">
         <v>1099390</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="8">
         <v>578140</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="8">
         <v>691500</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="8">
         <v>2058090</v>
       </c>
-      <c r="U3" s="9">
+      <c r="U3" s="8">
         <v>2376030</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="8">
         <v>1305740</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="10">
         <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -6537,67 +12011,67 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>133400</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>121380</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>1743120</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>1530960</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>983200</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>1597400</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <v>1630200</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="8">
         <v>457300</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="8">
         <v>732440</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="8">
         <v>757560</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="8">
         <v>1751040</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="8">
         <v>1314200</v>
       </c>
       <c r="T4" s="2">
         <v>0</v>
       </c>
-      <c r="U4" s="9">
+      <c r="U4" s="8">
         <v>93220</v>
       </c>
-      <c r="V4" s="9">
+      <c r="V4" s="8">
         <v>1169960</v>
       </c>
-      <c r="W4" s="11">
+      <c r="W4" s="10">
         <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -6605,52 +12079,52 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>98560</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>187200</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>34560</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>774400</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>1356800</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>829920</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <v>236000</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="8">
         <v>26240</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="8">
         <v>13120</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="8">
         <v>634520</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="8">
         <v>166880</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="8">
         <v>212160</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="8">
         <v>435040</v>
       </c>
       <c r="U5" s="2">
@@ -6659,13 +12133,13 @@
       <c r="V5" s="2">
         <v>0</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -6676,10 +12150,10 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>25384</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>158650</v>
       </c>
       <c r="H6" s="2">
@@ -6727,7 +12201,7 @@
       <c r="V6" s="2">
         <v>0</v>
       </c>
-      <c r="W6" s="11">
+      <c r="W6" s="10">
         <v>0.54</v>
       </c>
     </row>
@@ -6756,25 +12230,25 @@
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="12"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="T9" s="10"/>
+      <c r="T9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/tutorial_projects/tutorial1/cassandra/postproc/report_charts.xlsx
+++ b/tutorial_projects/tutorial1/cassandra/postproc/report_charts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aa_git_repos\aa_non_code_repos\cassandra_default_road_model\tutorial_projects\tutorial1\cassandra\postproc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2895E6C8-E130-43ED-B223-FA9B74067891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A80E480-F739-489C-B7D0-1EC562AF96B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="0" windowWidth="37710" windowHeight="19725" activeTab="1" xr2:uid="{C2C5AE50-D832-499E-82B7-35A971C1D7FB}"/>
+    <workbookView xWindow="2730" yWindow="1155" windowWidth="37710" windowHeight="19725" activeTab="2" xr2:uid="{C2C5AE50-D832-499E-82B7-35A971C1D7FB}"/>
   </bookViews>
   <sheets>
     <sheet name="param_forecast" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
   <si>
     <t>bin_descrip</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>2043_count %</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
   </si>
 </sst>
 </file>
@@ -2390,7 +2393,7 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>treatment_length_percent!$C$8</c:f>
+          <c:f>treatment_length_percent!$C$10</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
@@ -2479,64 +2482,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2023</c:v>
+                  <c:v>2024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2024</c:v>
+                  <c:v>2025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2025</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2026</c:v>
+                  <c:v>2027</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2027</c:v>
+                  <c:v>2028</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2028</c:v>
+                  <c:v>2029</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2029</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2030</c:v>
+                  <c:v>2031</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2031</c:v>
+                  <c:v>2032</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2032</c:v>
+                  <c:v>2033</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2033</c:v>
+                  <c:v>2034</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2034</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2035</c:v>
+                  <c:v>2036</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2036</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2037</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2038</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2039</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2040</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2041</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2042</c:v>
+                  <c:v>2043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2545,7 +2548,7 @@
             <c:numRef>
               <c:f>treatment_length_percent!$D$3:$V$3</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2554,13 +2557,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2622,7 +2625,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Preserve</c:v>
+                  <c:v>Maintenance</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2647,130 +2650,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2023</c:v>
+                  <c:v>2024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2024</c:v>
+                  <c:v>2025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2025</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2026</c:v>
+                  <c:v>2027</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2027</c:v>
+                  <c:v>2028</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2028</c:v>
+                  <c:v>2029</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2029</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2030</c:v>
+                  <c:v>2031</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2031</c:v>
+                  <c:v>2032</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2032</c:v>
+                  <c:v>2033</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2033</c:v>
+                  <c:v>2034</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2034</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2035</c:v>
+                  <c:v>2036</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2036</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2037</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2038</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2039</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2040</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2041</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2042</c:v>
+                  <c:v>2043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>treatment_length_percent!$D$4:$V$4</c:f>
+              <c:f>treatment_length_percent!$C$4:$V$4</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>17.260000000000002</c:v>
+                  <c:v>24.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.39</c:v>
+                  <c:v>21.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.66</c:v>
+                  <c:v>16.29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.559999999999999</c:v>
+                  <c:v>12.65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.69</c:v>
+                  <c:v>10.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.76</c:v>
+                  <c:v>13.57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.86</c:v>
+                  <c:v>20.14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.54</c:v>
+                  <c:v>13.57</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.37</c:v>
+                  <c:v>16.62</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.06</c:v>
+                  <c:v>19.739999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>16.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.43</c:v>
+                  <c:v>19.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.16</c:v>
+                  <c:v>18.690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.13</c:v>
+                  <c:v>14.28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.66</c:v>
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.05</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.61</c:v>
+                  <c:v>11.88</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.51</c:v>
+                  <c:v>13.79</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.7</c:v>
+                  <c:v>15.61</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2790,7 +2796,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rehab_ac</c:v>
+                  <c:v>Preserve</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2814,64 +2820,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2023</c:v>
+                  <c:v>2024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2024</c:v>
+                  <c:v>2025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2025</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2026</c:v>
+                  <c:v>2027</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2027</c:v>
+                  <c:v>2028</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2028</c:v>
+                  <c:v>2029</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2029</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2030</c:v>
+                  <c:v>2031</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2031</c:v>
+                  <c:v>2032</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2032</c:v>
+                  <c:v>2033</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2033</c:v>
+                  <c:v>2034</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2034</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2035</c:v>
+                  <c:v>2036</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2036</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2037</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2038</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2039</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2040</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2041</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2042</c:v>
+                  <c:v>2043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2880,64 +2886,64 @@
             <c:numRef>
               <c:f>treatment_length_percent!$D$5:$V$5</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>20.39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>14.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                  <c:v>16.559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.69</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12</c:v>
+                  <c:v>2.76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02</c:v>
+                  <c:v>1.86</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25</c:v>
+                  <c:v>12.54</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.37</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.62</c:v>
+                  <c:v>6.06</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>11.16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.02</c:v>
+                  <c:v>13.13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.01</c:v>
+                  <c:v>6.66</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.21</c:v>
+                  <c:v>3.05</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.09</c:v>
+                  <c:v>5.61</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.05</c:v>
+                  <c:v>13.51</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.23</c:v>
+                  <c:v>17.7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2957,7 +2963,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rehab_cs</c:v>
+                  <c:v>Rehab_ac</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2981,74 +2987,74 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2023</c:v>
+                  <c:v>2024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2024</c:v>
+                  <c:v>2025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2025</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2026</c:v>
+                  <c:v>2027</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2027</c:v>
+                  <c:v>2028</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2028</c:v>
+                  <c:v>2029</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2029</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2030</c:v>
+                  <c:v>2031</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2031</c:v>
+                  <c:v>2032</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2032</c:v>
+                  <c:v>2033</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2033</c:v>
+                  <c:v>2034</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2034</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2035</c:v>
+                  <c:v>2036</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2036</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2037</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2038</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2039</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2040</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2041</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2042</c:v>
+                  <c:v>2043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>treatment_length_percent!$D$6:$V$6</c:f>
+              <c:f>treatment_length_percent!$C$6:$V$6</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3056,55 +3062,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3199999999999998</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.63</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.78</c:v>
-                </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.98</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3112,6 +3121,105 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C677-4ECE-8E57-341C191E64F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>treatment_length_percent!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rehab_cs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>treatment_length_percent!$C$7:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0807-4DF5-9B98-EA201C5305D3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3200,7 +3308,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6552,13 +6660,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>123823</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7034,7 +7142,7 @@
         <v>mean</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:W3" si="0">C12</f>
+        <f t="shared" ref="C3" si="0">C12</f>
         <v>6.7</v>
       </c>
       <c r="D3" s="4">
@@ -7124,7 +7232,7 @@
         <v>90th_percentile</v>
       </c>
       <c r="C4" s="18">
-        <f t="shared" ref="C4:W4" si="2">C56</f>
+        <f t="shared" ref="C4" si="2">C56</f>
         <v>10.5</v>
       </c>
       <c r="D4" s="18">
@@ -10914,7 +11022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BA63E4-6CF1-4187-8976-31CAA0E74EAF}">
   <dimension ref="B2:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
@@ -11464,10 +11572,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11916BD6-DDB7-48F0-87FB-E3D3002E203C}">
-  <dimension ref="B2:W9"/>
+  <dimension ref="B2:W11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11477,374 +11585,466 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="14">
-        <v>2023</v>
-      </c>
-      <c r="D2" s="14">
+      <c r="C2" s="1">
         <v>2024</v>
       </c>
-      <c r="E2" s="14">
+      <c r="D2" s="1">
         <v>2025</v>
       </c>
-      <c r="F2" s="14">
+      <c r="E2" s="1">
         <v>2026</v>
       </c>
-      <c r="G2" s="14">
+      <c r="F2" s="1">
         <v>2027</v>
       </c>
-      <c r="H2" s="14">
+      <c r="G2" s="1">
         <v>2028</v>
       </c>
-      <c r="I2" s="14">
+      <c r="H2" s="1">
         <v>2029</v>
       </c>
-      <c r="J2" s="14">
+      <c r="I2" s="1">
         <v>2030</v>
       </c>
-      <c r="K2" s="14">
+      <c r="J2" s="1">
         <v>2031</v>
       </c>
-      <c r="L2" s="14">
+      <c r="K2" s="1">
         <v>2032</v>
       </c>
-      <c r="M2" s="14">
+      <c r="L2" s="1">
         <v>2033</v>
       </c>
-      <c r="N2" s="14">
+      <c r="M2" s="1">
         <v>2034</v>
       </c>
-      <c r="O2" s="14">
+      <c r="N2" s="1">
         <v>2035</v>
       </c>
-      <c r="P2" s="14">
+      <c r="O2" s="1">
         <v>2036</v>
       </c>
-      <c r="Q2" s="14">
+      <c r="P2" s="1">
         <v>2037</v>
       </c>
-      <c r="R2" s="14">
+      <c r="Q2" s="1">
         <v>2038</v>
       </c>
-      <c r="S2" s="14">
+      <c r="R2" s="1">
         <v>2039</v>
       </c>
-      <c r="T2" s="14">
+      <c r="S2" s="1">
         <v>2040</v>
       </c>
-      <c r="U2" s="14">
+      <c r="T2" s="1">
         <v>2041</v>
       </c>
-      <c r="V2" s="14">
+      <c r="U2" s="1">
         <v>2042</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="V2" s="1">
+        <v>2043</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="10">
-        <v>0.22</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.22</v>
-      </c>
-      <c r="I3" s="10">
+      <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="2">
         <v>0</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="2">
         <v>0</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="2">
         <v>0</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="2">
         <v>0</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="2">
         <v>0</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="2">
         <v>0</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="2">
         <v>0</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="2">
         <v>0</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="2">
         <v>0</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="2">
         <v>0</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U3" s="2">
         <v>0</v>
       </c>
-      <c r="V3" s="10">
+      <c r="V3" s="2">
         <v>0</v>
       </c>
-      <c r="W3" s="10">
+      <c r="W3" s="2">
         <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>17.260000000000002</v>
-      </c>
-      <c r="E4" s="10">
-        <v>20.39</v>
-      </c>
-      <c r="F4" s="10">
-        <v>14.66</v>
-      </c>
-      <c r="G4" s="10">
-        <v>16.559999999999999</v>
-      </c>
-      <c r="H4" s="10">
-        <v>6.69</v>
-      </c>
-      <c r="I4" s="10">
-        <v>2.76</v>
-      </c>
-      <c r="J4" s="10">
-        <v>1.86</v>
-      </c>
-      <c r="K4" s="10">
-        <v>12.54</v>
-      </c>
-      <c r="L4" s="10">
-        <v>3.37</v>
-      </c>
-      <c r="M4" s="10">
-        <v>6.06</v>
-      </c>
-      <c r="N4" s="10">
-        <v>8</v>
-      </c>
-      <c r="O4" s="10">
-        <v>0.43</v>
-      </c>
-      <c r="P4" s="10">
-        <v>11.16</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>13.13</v>
-      </c>
-      <c r="R4" s="10">
-        <v>6.66</v>
-      </c>
-      <c r="S4" s="10">
-        <v>3.05</v>
-      </c>
-      <c r="T4" s="10">
-        <v>5.61</v>
-      </c>
-      <c r="U4" s="10">
-        <v>13.51</v>
-      </c>
-      <c r="V4" s="10">
-        <v>17.7</v>
-      </c>
-      <c r="W4" s="10">
-        <v>9.5500000000000007</v>
+      <c r="B4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="2">
+        <v>24.44</v>
+      </c>
+      <c r="D4" s="2">
+        <v>21.13</v>
+      </c>
+      <c r="E4" s="2">
+        <v>16.29</v>
+      </c>
+      <c r="F4" s="2">
+        <v>12.65</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10.35</v>
+      </c>
+      <c r="H4" s="2">
+        <v>13.57</v>
+      </c>
+      <c r="I4" s="2">
+        <v>20.14</v>
+      </c>
+      <c r="J4" s="2">
+        <v>13.57</v>
+      </c>
+      <c r="K4" s="2">
+        <v>16.62</v>
+      </c>
+      <c r="L4" s="2">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="M4" s="2">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="N4" s="2">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="O4" s="2">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="P4" s="2">
+        <v>14.28</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="R4" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="S4" s="2">
+        <v>11.88</v>
+      </c>
+      <c r="T4" s="2">
+        <v>13.79</v>
+      </c>
+      <c r="U4" s="2">
+        <v>15.61</v>
+      </c>
+      <c r="V4" s="2">
+        <v>17.87</v>
+      </c>
+      <c r="W4" s="2">
+        <v>15.57</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="K5" s="10">
-        <v>0</v>
-      </c>
-      <c r="L5" s="10">
-        <v>0.62</v>
-      </c>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
-      <c r="N5" s="10">
-        <v>0.19</v>
-      </c>
-      <c r="O5" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P5" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="R5" s="10">
-        <v>0.21</v>
-      </c>
-      <c r="S5" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="T5" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="U5" s="10">
-        <v>0.23</v>
-      </c>
-      <c r="V5" s="10">
-        <v>0</v>
-      </c>
-      <c r="W5" s="10">
-        <v>0.1</v>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20.39</v>
+      </c>
+      <c r="E5" s="2">
+        <v>14.66</v>
+      </c>
+      <c r="F5" s="2">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6.69</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2.76</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="J5" s="2">
+        <v>12.54</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3.37</v>
+      </c>
+      <c r="L5" s="2">
+        <v>6.06</v>
+      </c>
+      <c r="M5" s="2">
+        <v>8</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="O5" s="2">
+        <v>11.16</v>
+      </c>
+      <c r="P5" s="2">
+        <v>13.13</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>6.66</v>
+      </c>
+      <c r="R5" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="S5" s="2">
+        <v>5.61</v>
+      </c>
+      <c r="T5" s="2">
+        <v>13.51</v>
+      </c>
+      <c r="U5" s="2">
+        <v>17.7</v>
+      </c>
+      <c r="V5" s="2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="W5" s="2">
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="N6" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E7" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="10">
-        <v>0.18</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="G7" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="K7" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I6" s="10">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0.66</v>
-      </c>
-      <c r="K6" s="10">
-        <v>0.63</v>
-      </c>
-      <c r="L6" s="10">
+      <c r="L7" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="M7" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="10">
-        <v>0.78</v>
-      </c>
-      <c r="N6" s="10">
+      <c r="N7" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="T7" s="2">
         <v>0</v>
       </c>
-      <c r="O6" s="10">
+      <c r="U7" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="V7" s="2">
         <v>0.52</v>
       </c>
-      <c r="P6" s="10">
-        <v>0.61</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>0.83</v>
-      </c>
-      <c r="R6" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="S6" s="10">
-        <v>1.98</v>
-      </c>
-      <c r="T6" s="10">
-        <v>0.88</v>
-      </c>
-      <c r="U6" s="10">
-        <v>0</v>
-      </c>
-      <c r="V6" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="W6" s="10">
+      <c r="W7" s="2">
         <v>0.54</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="O8" s="11" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="O10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P10" s="12">
         <v>124901</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="T9" s="9"/>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="C10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/tutorial_projects/tutorial1/cassandra/postproc/report_charts.xlsx
+++ b/tutorial_projects/tutorial1/cassandra/postproc/report_charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aa_git_repos\aa_non_code_repos\cassandra_default_road_model\tutorial_projects\tutorial1\cassandra\postproc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A80E480-F739-489C-B7D0-1EC562AF96B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4EF3A6-F249-4F41-A69C-4F9BF25C1416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1155" windowWidth="37710" windowHeight="19725" activeTab="2" xr2:uid="{C2C5AE50-D832-499E-82B7-35A971C1D7FB}"/>
+    <workbookView xWindow="6075" yWindow="165" windowWidth="38070" windowHeight="19725" activeTab="3" xr2:uid="{C2C5AE50-D832-499E-82B7-35A971C1D7FB}"/>
   </bookViews>
   <sheets>
     <sheet name="param_forecast" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
   <si>
     <t>bin_descrip</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>treatment_category</t>
-  </si>
-  <si>
-    <t>Spending Relative to Total Budget</t>
   </si>
   <si>
     <t>statistic</t>
@@ -406,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -419,9 +416,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3446,9 +3440,6 @@
           <c:f>treatment_spending!$C$8</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
-            <c:pt idx="0">
-              <c:v>Spending Relative to Total Budget</c:v>
-            </c:pt>
           </c:strCache>
         </c:strRef>
       </c:tx>
@@ -3678,7 +3669,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rehab_cs</c:v>
+                  <c:v>Maintenance</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3766,67 +3757,67 @@
             <c:numRef>
               <c:f>treatment_spending!$C$4:$V$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>122477</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="#,##0">
-                  <c:v>133400</c:v>
+                  <c:v>142550</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125883</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="#,##0">
-                  <c:v>121380</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="#,##0">
-                  <c:v>1743120</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="#,##0">
-                  <c:v>1530960</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="#,##0">
-                  <c:v>983200</c:v>
+                  <c:v>94718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129571</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>174747</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="#,##0">
-                  <c:v>1597400</c:v>
+                  <c:v>95129</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>112938</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="#,##0">
-                  <c:v>1630200</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="#,##0">
-                  <c:v>457300</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="#,##0">
-                  <c:v>732440</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="#,##0">
-                  <c:v>757560</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="#,##0">
-                  <c:v>1751040</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="#,##0">
-                  <c:v>1314200</c:v>
+                  <c:v>91004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>126635</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>136835</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>116025</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78443</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>116814</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="#,##0">
-                  <c:v>93220</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="#,##0">
-                  <c:v>1169960</c:v>
+                  <c:v>141954</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>127821</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>151008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3846,7 +3837,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rehab_ac</c:v>
+                  <c:v>Rehab_cs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3945,58 +3936,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="#,##0">
-                  <c:v>98560</c:v>
+                  <c:v>133400</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="#,##0">
-                  <c:v>187200</c:v>
+                  <c:v>121380</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0">
-                  <c:v>34560</c:v>
+                  <c:v>1743120</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0">
-                  <c:v>774400</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                  <c:v>1530960</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0">
+                  <c:v>983200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="#,##0">
-                  <c:v>1356800</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>1597400</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="#,##0">
-                  <c:v>829920</c:v>
-                </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
-                  <c:v>236000</c:v>
+                  <c:v>1630200</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="#,##0">
-                  <c:v>26240</c:v>
+                  <c:v>457300</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="#,##0">
-                  <c:v>13120</c:v>
+                  <c:v>732440</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="#,##0">
-                  <c:v>634520</c:v>
+                  <c:v>757560</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="#,##0">
-                  <c:v>166880</c:v>
+                  <c:v>1751040</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="#,##0">
-                  <c:v>212160</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="#,##0">
-                  <c:v>435040</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                  <c:v>1314200</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
+                <c:pt idx="18" formatCode="#,##0">
+                  <c:v>93220</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="#,##0">
+                  <c:v>1169960</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4016,7 +4007,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Holding</c:v>
+                  <c:v>Rehab_ac</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4115,53 +4106,53 @@
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>98560</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="#,##0">
-                  <c:v>25384</c:v>
-                </c:pt>
                 <c:pt idx="4" formatCode="#,##0">
-                  <c:v>158650</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>187200</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0">
+                  <c:v>34560</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>774400</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
+                <c:pt idx="8" formatCode="#,##0">
+                  <c:v>1356800</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>829920</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>236000</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="#,##0">
+                  <c:v>26240</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="#,##0">
+                  <c:v>13120</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>634520</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="#,##0">
+                  <c:v>166880</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0">
+                  <c:v>212160</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="#,##0">
+                  <c:v>435040</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -7069,70 +7060,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5">
         <v>2023</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>2024</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>2025</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>2026</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>2027</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>2028</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>2029</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>2030</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>2031</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>2032</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <v>2033</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <v>2034</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <v>2035</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="5">
         <v>2036</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="5">
         <v>2037</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="5">
         <v>2038</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="5">
         <v>2039</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="5">
         <v>2040</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="5">
         <v>2041</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2" s="5">
         <v>2042</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="5">
         <v>2043</v>
       </c>
     </row>
@@ -7231,3760 +7222,3760 @@
         <f>B56</f>
         <v>90th_percentile</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <f t="shared" ref="C4" si="2">C56</f>
         <v>10.5</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <f t="shared" ref="D4:W4" si="3">D56</f>
         <v>11</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <f t="shared" si="3"/>
         <v>11.3</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="17">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="17">
         <f t="shared" si="3"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="17">
         <f t="shared" si="3"/>
         <v>10.1</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <f t="shared" si="3"/>
         <v>10.1</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="17">
         <f t="shared" si="3"/>
         <v>10.1</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="17">
         <f t="shared" si="3"/>
         <v>10.1</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="17">
         <f t="shared" si="3"/>
         <v>10.3</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="17">
         <f t="shared" si="3"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="17">
         <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="17">
         <f t="shared" si="3"/>
         <v>10.4</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="17">
         <f t="shared" si="3"/>
         <v>10.6</v>
       </c>
-      <c r="R4" s="18">
+      <c r="R4" s="17">
         <f t="shared" si="3"/>
         <v>10.7</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="17">
         <f t="shared" si="3"/>
         <v>10.8</v>
       </c>
-      <c r="T4" s="18">
+      <c r="T4" s="17">
         <f t="shared" si="3"/>
         <v>10.7</v>
       </c>
-      <c r="U4" s="18">
+      <c r="U4" s="17">
         <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
-      <c r="V4" s="18">
+      <c r="V4" s="17">
         <f t="shared" si="3"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="W4" s="18">
+      <c r="W4" s="17">
         <f t="shared" si="3"/>
         <v>9.4</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="B8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="13">
         <v>2023</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>2024</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>2025</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>2026</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>2027</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>2028</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <v>2029</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>2030</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <v>2031</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="13">
         <v>2032</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="13">
         <v>2033</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="13">
         <v>2034</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="13">
         <v>2035</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="13">
         <v>2036</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="13">
         <v>2037</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="13">
         <v>2038</v>
       </c>
-      <c r="S8" s="14">
+      <c r="S8" s="13">
         <v>2039</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="13">
         <v>2040</v>
       </c>
-      <c r="U8" s="14">
+      <c r="U8" s="13">
         <v>2041</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V8" s="13">
         <v>2042</v>
       </c>
-      <c r="W8" s="14">
+      <c r="W8" s="13">
         <v>2043</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="15">
         <v>3336.9</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>3400.2</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>3442.6</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>3498</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>3508.8</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <v>3377.9</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <v>3419.6</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <v>3433.4</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="15">
         <v>3411.2</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="15">
         <v>3435.1</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="15">
         <v>3459.4</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="15">
         <v>3438.9</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="15">
         <v>3495.5</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="15">
         <v>3455.8</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="15">
         <v>3396.2</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="15">
         <v>3370.7</v>
       </c>
-      <c r="S9" s="16">
+      <c r="S9" s="15">
         <v>3354.1</v>
       </c>
-      <c r="T9" s="16">
+      <c r="T9" s="15">
         <v>3338.9</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U9" s="15">
         <v>3335.6</v>
       </c>
-      <c r="V9" s="16">
+      <c r="V9" s="15">
         <v>3273.7</v>
       </c>
-      <c r="W9" s="16">
+      <c r="W9" s="15">
         <v>3249.4</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="16">
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="15">
         <v>4574.7</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>5007.6000000000004</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>5363.1</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>5836.3</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>6136.4</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>5279.5</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="15">
         <v>5697.9</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="15">
         <v>6004.6</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="15">
         <v>5395.2</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="15">
         <v>5382.7</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="15">
         <v>5610.5</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="15">
         <v>5648.4</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="15">
         <v>6148.8</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="15">
         <v>6004.1</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="15">
         <v>4543.3999999999996</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R10" s="15">
         <v>4178.7</v>
       </c>
-      <c r="S10" s="16">
+      <c r="S10" s="15">
         <v>4231.7</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10" s="15">
         <v>4216.6000000000004</v>
       </c>
-      <c r="U10" s="16">
+      <c r="U10" s="15">
         <v>4219.7</v>
       </c>
-      <c r="V10" s="16">
+      <c r="V10" s="15">
         <v>3550.3</v>
       </c>
-      <c r="W10" s="16">
+      <c r="W10" s="15">
         <v>3351.2</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>6.7</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>6.8</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>6.9</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>7</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>7</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>6.8</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>6.8</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>6.9</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>6.8</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>6.9</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>6.9</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <v>6.9</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="6">
         <v>7</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="6">
         <v>6.9</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="6">
         <v>6.8</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="6">
         <v>6.7</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="6">
         <v>6.7</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="6">
         <v>6.7</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="6">
         <v>6.7</v>
       </c>
-      <c r="V11" s="7">
+      <c r="V11" s="6">
         <v>6.5</v>
       </c>
-      <c r="W11" s="7">
+      <c r="W11" s="6">
         <v>6.5</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="17">
+      <c r="B12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="16">
         <v>6.7</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>6.8</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>6.9</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>7</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>7</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <v>6.8</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>6.8</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="16">
         <v>6.9</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="16">
         <v>6.8</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="16">
         <v>6.9</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="16">
         <v>6.9</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="16">
         <v>6.9</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="16">
         <v>7</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="16">
         <v>6.9</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="16">
         <v>6.8</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="16">
         <v>6.7</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="16">
         <v>6.7</v>
       </c>
-      <c r="T12" s="17">
+      <c r="T12" s="16">
         <v>6.7</v>
       </c>
-      <c r="U12" s="17">
+      <c r="U12" s="16">
         <v>6.7</v>
       </c>
-      <c r="V12" s="17">
+      <c r="V12" s="16">
         <v>6.5</v>
       </c>
-      <c r="W12" s="17">
+      <c r="W12" s="16">
         <v>6.5</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6">
         <v>6.7</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>6.8</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>6.9</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>7</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>7</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>6.8</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>6.8</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>6.9</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <v>6.8</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <v>6.9</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <v>6.9</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <v>6.9</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="6">
         <v>7</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="6">
         <v>6.9</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="6">
         <v>6.8</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="6">
         <v>6.7</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13" s="6">
         <v>6.7</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="6">
         <v>6.7</v>
       </c>
-      <c r="U13" s="7">
+      <c r="U13" s="6">
         <v>6.7</v>
       </c>
-      <c r="V13" s="7">
+      <c r="V13" s="6">
         <v>6.5</v>
       </c>
-      <c r="W13" s="7">
+      <c r="W13" s="6">
         <v>6.5</v>
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="B14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="6">
         <v>14.3</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>15.4</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>16.3</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>17.600000000000001</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>19</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>19</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>20.5</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>21.5</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>20.6</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <v>22</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <v>23.5</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="6">
         <v>24.9</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="6">
         <v>26.4</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="6">
         <v>27.8</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="6">
         <v>25.6</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="6">
         <v>16.3</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="6">
         <v>16.5</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="6">
         <v>16.600000000000001</v>
       </c>
-      <c r="U14" s="7">
+      <c r="U14" s="6">
         <v>16.899999999999999</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="6">
         <v>17</v>
       </c>
-      <c r="W14" s="7">
+      <c r="W14" s="6">
         <v>17.3</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="B15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>10</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>10.7</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>11.7</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>12.3</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>10.6</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>11.4</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>12</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <v>10.8</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>10.8</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="6">
         <v>11.2</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="6">
         <v>11.3</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="6">
         <v>12.3</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="6">
         <v>12</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="6">
         <v>9.1</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="6">
         <v>8.4</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="6">
         <v>8.5</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T15" s="6">
         <v>8.5</v>
       </c>
-      <c r="U15" s="7">
+      <c r="U15" s="6">
         <v>8.5</v>
       </c>
-      <c r="V15" s="7">
+      <c r="V15" s="6">
         <v>7.1</v>
       </c>
-      <c r="W15" s="7">
+      <c r="W15" s="6">
         <v>6.7</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="B16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="6">
         <v>0.5</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>0.5</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>0.5</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>0.5</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>0.5</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>0.5</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>0.5</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>0.5</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <v>0.5</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <v>0.5</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="6">
         <v>0.5</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="6">
         <v>0.5</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="6">
         <v>0.5</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="6">
         <v>0.5</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="6">
         <v>0.4</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="6">
         <v>0.4</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="6">
         <v>0.4</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="6">
         <v>0.4</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="6">
         <v>0.4</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="6">
         <v>0.4</v>
       </c>
-      <c r="W16" s="7">
+      <c r="W16" s="6">
         <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="7">
+      <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="6">
         <v>45.4</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>46.6</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>47.6</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>48.9</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>50</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>48.1</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>49.4</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>50.5</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <v>48.2</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <v>47.8</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <v>48.5</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="6">
         <v>48.9</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="6">
         <v>50.2</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="6">
         <v>50.2</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="6">
         <v>44.4</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="6">
         <v>42.9</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="6">
         <v>43.4</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="6">
         <v>43.5</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="6">
         <v>43.6</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V17" s="6">
         <v>40.700000000000003</v>
       </c>
-      <c r="W17" s="7">
+      <c r="W17" s="6">
         <v>39.9</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="B18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="6">
         <v>500</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>500</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>500</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>500</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>500</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>500</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>500</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>500</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <v>500</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <v>500</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <v>500</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="6">
         <v>500</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="6">
         <v>500</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="6">
         <v>500</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="6">
         <v>500</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="6">
         <v>500</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="6">
         <v>500</v>
       </c>
-      <c r="T18" s="7">
+      <c r="T18" s="6">
         <v>500</v>
       </c>
-      <c r="U18" s="7">
+      <c r="U18" s="6">
         <v>500</v>
       </c>
-      <c r="V18" s="7">
+      <c r="V18" s="6">
         <v>500</v>
       </c>
-      <c r="W18" s="7">
+      <c r="W18" s="6">
         <v>500</v>
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="7">
+      <c r="B19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="6">
         <v>15.3</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>16.399999999999999</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>17.399999999999999</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>18.7</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>20.2</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <v>20.2</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>21.7</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>22.8</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="6">
         <v>21.9</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <v>23.4</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <v>24.9</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="6">
         <v>26.4</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="6">
         <v>27.9</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="6">
         <v>29.4</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="6">
         <v>27.2</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="6">
         <v>18</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19" s="6">
         <v>18.2</v>
       </c>
-      <c r="T19" s="7">
+      <c r="T19" s="6">
         <v>18.399999999999999</v>
       </c>
-      <c r="U19" s="7">
+      <c r="U19" s="6">
         <v>18.7</v>
       </c>
-      <c r="V19" s="7">
+      <c r="V19" s="6">
         <v>18.899999999999999</v>
       </c>
-      <c r="W19" s="7">
+      <c r="W19" s="6">
         <v>19.2</v>
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="B20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="6">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>1</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>1.2</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>1.2</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>1.2</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <v>1.3</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="6">
         <v>1.3</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <v>1.4</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="6">
         <v>1.4</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="6">
         <v>1.5</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="6">
         <v>1.5</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="6">
         <v>1.6</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q20" s="6">
         <v>1.6</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R20" s="6">
         <v>1.7</v>
       </c>
-      <c r="S20" s="7">
+      <c r="S20" s="6">
         <v>1.7</v>
       </c>
-      <c r="T20" s="7">
+      <c r="T20" s="6">
         <v>1.8</v>
       </c>
-      <c r="U20" s="7">
+      <c r="U20" s="6">
         <v>1.8</v>
       </c>
-      <c r="V20" s="7">
+      <c r="V20" s="6">
         <v>1.9</v>
       </c>
-      <c r="W20" s="7">
+      <c r="W20" s="6">
         <v>1.9</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="B21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="6">
         <v>6.9</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>6.8</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>6.7</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>6.7</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>6.8</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>6.9</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>6.9</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>6.8</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <v>6.8</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <v>6.9</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="6">
         <v>6.8</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="6">
         <v>6.6</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="6">
         <v>6.6</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="6">
         <v>6.6</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="6">
         <v>6.5</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R21" s="6">
         <v>6.4</v>
       </c>
-      <c r="S21" s="7">
+      <c r="S21" s="6">
         <v>6.1</v>
       </c>
-      <c r="T21" s="7">
+      <c r="T21" s="6">
         <v>6.1</v>
       </c>
-      <c r="U21" s="7">
+      <c r="U21" s="6">
         <v>6</v>
       </c>
-      <c r="V21" s="7">
+      <c r="V21" s="6">
         <v>6</v>
       </c>
-      <c r="W21" s="7">
+      <c r="W21" s="6">
         <v>5.9</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="B22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="6">
         <v>6.9</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>6.8</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>6.7</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>6.7</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>6.8</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <v>6.9</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>6.9</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <v>6.8</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="6">
         <v>6.8</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="6">
         <v>6.9</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="6">
         <v>6.8</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="6">
         <v>6.6</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="6">
         <v>6.6</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="6">
         <v>6.6</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="Q22" s="6">
         <v>6.5</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="6">
         <v>6.4</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="6">
         <v>6.1</v>
       </c>
-      <c r="T22" s="7">
+      <c r="T22" s="6">
         <v>6.1</v>
       </c>
-      <c r="U22" s="7">
+      <c r="U22" s="6">
         <v>6</v>
       </c>
-      <c r="V22" s="7">
+      <c r="V22" s="6">
         <v>6</v>
       </c>
-      <c r="W22" s="7">
+      <c r="W22" s="6">
         <v>5.9</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="7">
+      <c r="B23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="6">
         <v>1.8</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>1.9</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>2</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>2.1</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>2.1</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <v>2.1</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>2.1</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23" s="6">
         <v>2.4</v>
       </c>
-      <c r="R23" s="7">
+      <c r="R23" s="6">
         <v>2.4</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S23" s="6">
         <v>2.4</v>
       </c>
-      <c r="T23" s="7">
+      <c r="T23" s="6">
         <v>2.5</v>
       </c>
-      <c r="U23" s="7">
+      <c r="U23" s="6">
         <v>2.5</v>
       </c>
-      <c r="V23" s="7">
+      <c r="V23" s="6">
         <v>2.5</v>
       </c>
-      <c r="W23" s="7">
+      <c r="W23" s="6">
         <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="B24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="6">
         <v>2</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>2</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>2.1</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>2.1</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <v>2.1</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <v>2.1</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="6">
         <v>2.4</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="6">
         <v>2.5</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="6">
         <v>2.5</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="Q24" s="6">
         <v>2.5</v>
       </c>
-      <c r="R24" s="7">
+      <c r="R24" s="6">
         <v>2.6</v>
       </c>
-      <c r="S24" s="7">
+      <c r="S24" s="6">
         <v>2.6</v>
       </c>
-      <c r="T24" s="7">
+      <c r="T24" s="6">
         <v>2.7</v>
       </c>
-      <c r="U24" s="7">
+      <c r="U24" s="6">
         <v>2.7</v>
       </c>
-      <c r="V24" s="7">
+      <c r="V24" s="6">
         <v>2.7</v>
       </c>
-      <c r="W24" s="7">
+      <c r="W24" s="6">
         <v>2.8</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="7">
+      <c r="B25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="6">
         <v>2</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>2</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>2.1</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>2.1</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>2.1</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="6">
         <v>2.4</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="6">
         <v>2.4</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="6">
         <v>2.4</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="6">
         <v>2.5</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="6">
         <v>2.5</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q25" s="6">
         <v>2.6</v>
       </c>
-      <c r="R25" s="7">
+      <c r="R25" s="6">
         <v>2.6</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S25" s="6">
         <v>2.7</v>
       </c>
-      <c r="T25" s="7">
+      <c r="T25" s="6">
         <v>2.8</v>
       </c>
-      <c r="U25" s="7">
+      <c r="U25" s="6">
         <v>2.8</v>
       </c>
-      <c r="V25" s="7">
+      <c r="V25" s="6">
         <v>2.9</v>
       </c>
-      <c r="W25" s="7">
+      <c r="W25" s="6">
         <v>2.9</v>
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="7">
+      <c r="B26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="6">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>2.1</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>2.1</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>2.1</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <v>2.4</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="6">
         <v>2.4</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="6">
         <v>2.5</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="6">
         <v>2.6</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="6">
         <v>2.6</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="6">
         <v>2.7</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="6">
         <v>2.7</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="Q26" s="6">
         <v>2.8</v>
       </c>
-      <c r="R26" s="7">
+      <c r="R26" s="6">
         <v>2.9</v>
       </c>
-      <c r="S26" s="7">
+      <c r="S26" s="6">
         <v>2.9</v>
       </c>
-      <c r="T26" s="7">
+      <c r="T26" s="6">
         <v>3</v>
       </c>
-      <c r="U26" s="7">
+      <c r="U26" s="6">
         <v>3</v>
       </c>
-      <c r="V26" s="7">
+      <c r="V26" s="6">
         <v>3.1</v>
       </c>
-      <c r="W26" s="7">
+      <c r="W26" s="6">
         <v>3.1</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="7">
+      <c r="B27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="6">
         <v>2</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>2.1</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>2.5</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="6">
         <v>2.5</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="6">
         <v>2.6</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="6">
         <v>2.7</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="6">
         <v>2.7</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="6">
         <v>2.8</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="6">
         <v>2.9</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="6">
         <v>3</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="6">
         <v>3.1</v>
       </c>
-      <c r="R27" s="7">
+      <c r="R27" s="6">
         <v>3.1</v>
       </c>
-      <c r="S27" s="7">
+      <c r="S27" s="6">
         <v>3.2</v>
       </c>
-      <c r="T27" s="7">
+      <c r="T27" s="6">
         <v>3.1</v>
       </c>
-      <c r="U27" s="7">
+      <c r="U27" s="6">
         <v>3.2</v>
       </c>
-      <c r="V27" s="7">
+      <c r="V27" s="6">
         <v>3.3</v>
       </c>
-      <c r="W27" s="7">
+      <c r="W27" s="6">
         <v>3.3</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="7">
+      <c r="B28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="6">
         <v>2.9</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>3</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>3</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>3.1</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>3.1</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="6">
         <v>3.1</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>3.2</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="6">
         <v>3.1</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="6">
         <v>3.1</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="6">
         <v>3.2</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="6">
         <v>3.3</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="6">
         <v>3.4</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="6">
         <v>3.4</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="6">
         <v>3.5</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="Q28" s="6">
         <v>3.5</v>
       </c>
-      <c r="R28" s="7">
+      <c r="R28" s="6">
         <v>3.7</v>
       </c>
-      <c r="S28" s="7">
+      <c r="S28" s="6">
         <v>3.7</v>
       </c>
-      <c r="T28" s="7">
+      <c r="T28" s="6">
         <v>3.8</v>
       </c>
-      <c r="U28" s="7">
+      <c r="U28" s="6">
         <v>3.8</v>
       </c>
-      <c r="V28" s="7">
+      <c r="V28" s="6">
         <v>3.9</v>
       </c>
-      <c r="W28" s="7">
+      <c r="W28" s="6">
         <v>3.9</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="7">
+      <c r="B29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="6">
         <v>3</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>3</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>3.1</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <v>3.1</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>3.2</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <v>3.2</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>3.3</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="6">
         <v>3.3</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="6">
         <v>3.3</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="6">
         <v>3.4</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="6">
         <v>3.4</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="6">
         <v>3.5</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="6">
         <v>3.5</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="6">
         <v>3.5</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="Q29" s="6">
         <v>3.6</v>
       </c>
-      <c r="R29" s="7">
+      <c r="R29" s="6">
         <v>3.7</v>
       </c>
-      <c r="S29" s="7">
+      <c r="S29" s="6">
         <v>3.8</v>
       </c>
-      <c r="T29" s="7">
+      <c r="T29" s="6">
         <v>3.8</v>
       </c>
-      <c r="U29" s="7">
+      <c r="U29" s="6">
         <v>3.9</v>
       </c>
-      <c r="V29" s="7">
+      <c r="V29" s="6">
         <v>4</v>
       </c>
-      <c r="W29" s="7">
+      <c r="W29" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="7">
+      <c r="B30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="6">
         <v>3</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>3.1</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <v>3.1</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <v>3.2</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <v>3.2</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="6">
         <v>3.2</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <v>3.3</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="6">
         <v>3.4</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="6">
         <v>3.4</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="6">
         <v>3.5</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="6">
         <v>3.5</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="6">
         <v>3.6</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="6">
         <v>3.6</v>
       </c>
-      <c r="P30" s="7">
+      <c r="P30" s="6">
         <v>3.7</v>
       </c>
-      <c r="Q30" s="7">
+      <c r="Q30" s="6">
         <v>3.7</v>
       </c>
-      <c r="R30" s="7">
+      <c r="R30" s="6">
         <v>3.7</v>
       </c>
-      <c r="S30" s="7">
+      <c r="S30" s="6">
         <v>3.9</v>
       </c>
-      <c r="T30" s="7">
+      <c r="T30" s="6">
         <v>3.9</v>
       </c>
-      <c r="U30" s="7">
+      <c r="U30" s="6">
         <v>4</v>
       </c>
-      <c r="V30" s="7">
+      <c r="V30" s="6">
         <v>4</v>
       </c>
-      <c r="W30" s="7">
+      <c r="W30" s="6">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="7">
+      <c r="B31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="6">
         <v>3</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>3.1</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>3.1</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <v>3.2</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <v>3.2</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="6">
         <v>3.3</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <v>3.4</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="6">
         <v>3.4</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="6">
         <v>3.4</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="6">
         <v>3.5</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="6">
         <v>3.5</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="6">
         <v>3.6</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="6">
         <v>3.6</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31" s="6">
         <v>3.7</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="Q31" s="6">
         <v>3.7</v>
       </c>
-      <c r="R31" s="7">
+      <c r="R31" s="6">
         <v>3.8</v>
       </c>
-      <c r="S31" s="7">
+      <c r="S31" s="6">
         <v>3.9</v>
       </c>
-      <c r="T31" s="7">
+      <c r="T31" s="6">
         <v>3.9</v>
       </c>
-      <c r="U31" s="7">
+      <c r="U31" s="6">
         <v>4</v>
       </c>
-      <c r="V31" s="7">
+      <c r="V31" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="W31" s="7">
+      <c r="W31" s="6">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="7">
+      <c r="B32" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="6">
         <v>3</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>3.1</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>3.2</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <v>3.4</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <v>3.4</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="6">
         <v>3.5</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>3.6</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="6">
         <v>3.7</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="6">
         <v>3.7</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="6">
         <v>3.8</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="6">
         <v>3.8</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="6">
         <v>3.9</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="6">
         <v>3.8</v>
       </c>
-      <c r="P32" s="7">
+      <c r="P32" s="6">
         <v>3.9</v>
       </c>
-      <c r="Q32" s="7">
+      <c r="Q32" s="6">
         <v>4</v>
       </c>
-      <c r="R32" s="7">
+      <c r="R32" s="6">
         <v>4</v>
       </c>
-      <c r="S32" s="7">
+      <c r="S32" s="6">
         <v>4</v>
       </c>
-      <c r="T32" s="7">
+      <c r="T32" s="6">
         <v>4</v>
       </c>
-      <c r="U32" s="7">
+      <c r="U32" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="V32" s="7">
+      <c r="V32" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="W32" s="7">
+      <c r="W32" s="6">
         <v>4.2</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="7">
+      <c r="B33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="6">
         <v>3.1</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>3.3</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <v>3.4</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <v>3.5</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <v>3.7</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="6">
         <v>3.8</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>3.8</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="6">
         <v>3.8</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="6">
         <v>3.9</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="6">
         <v>4</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="6">
         <v>4</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N33" s="6">
         <v>4</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="6">
         <v>4</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P33" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Q33" s="7">
+      <c r="Q33" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="R33" s="7">
+      <c r="R33" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="S33" s="7">
+      <c r="S33" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="T33" s="7">
+      <c r="T33" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="U33" s="7">
+      <c r="U33" s="6">
         <v>4.2</v>
       </c>
-      <c r="V33" s="7">
+      <c r="V33" s="6">
         <v>4.2</v>
       </c>
-      <c r="W33" s="7">
+      <c r="W33" s="6">
         <v>4.3</v>
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="7">
+      <c r="B34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="6">
         <v>4</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <v>4.2</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="6">
         <v>4.2</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="6">
         <v>4.2</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="6">
         <v>4.2</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="6">
         <v>4.2</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="6">
         <v>4.2</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="6">
         <v>4.3</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="6">
         <v>4.3</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N34" s="6">
         <v>4.3</v>
       </c>
-      <c r="O34" s="7">
+      <c r="O34" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P34" s="7">
+      <c r="P34" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Q34" s="7">
+      <c r="Q34" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="R34" s="7">
+      <c r="R34" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="S34" s="7">
+      <c r="S34" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="T34" s="7">
+      <c r="T34" s="6">
         <v>4.3</v>
       </c>
-      <c r="U34" s="7">
+      <c r="U34" s="6">
         <v>4.3</v>
       </c>
-      <c r="V34" s="7">
+      <c r="V34" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="W34" s="7">
+      <c r="W34" s="6">
         <v>4.5</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="7">
+      <c r="B35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="6">
         <v>4</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <v>4.2</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <v>4.3</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <v>4.3</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="6">
         <v>4.2</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>4.2</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="6">
         <v>4.2</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="6">
         <v>4.3</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="6">
         <v>4.3</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="6">
         <v>4.3</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="6">
         <v>4.3</v>
       </c>
-      <c r="O35" s="7">
+      <c r="O35" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P35" s="7">
+      <c r="P35" s="6">
         <v>4.5</v>
       </c>
-      <c r="Q35" s="7">
+      <c r="Q35" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="R35" s="7">
+      <c r="R35" s="6">
         <v>4.5</v>
       </c>
-      <c r="S35" s="7">
+      <c r="S35" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="T35" s="7">
+      <c r="T35" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="U35" s="7">
+      <c r="U35" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="V35" s="7">
+      <c r="V35" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="W35" s="7">
+      <c r="W35" s="6">
         <v>4.5</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="7">
+      <c r="B36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="6">
         <v>4.8</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <v>4.8</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="6">
         <v>4.8</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <v>4.5</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="6">
         <v>4.5</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M36" s="6">
         <v>4.5</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N36" s="6">
         <v>4.5</v>
       </c>
-      <c r="O36" s="7">
+      <c r="O36" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P36" s="7">
+      <c r="P36" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Q36" s="7">
+      <c r="Q36" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="R36" s="7">
+      <c r="R36" s="6">
         <v>4.7</v>
       </c>
-      <c r="S36" s="7">
+      <c r="S36" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="T36" s="7">
+      <c r="T36" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="U36" s="7">
+      <c r="U36" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="V36" s="7">
+      <c r="V36" s="6">
         <v>4.7</v>
       </c>
-      <c r="W36" s="7">
+      <c r="W36" s="6">
         <v>4.7</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="7">
+      <c r="B37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>5</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <v>5.2</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="6">
         <v>5</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="6">
         <v>4.7</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="6">
         <v>4.5</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="6">
         <v>4.5</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N37" s="6">
         <v>4.5</v>
       </c>
-      <c r="O37" s="7">
+      <c r="O37" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P37" s="7">
+      <c r="P37" s="6">
         <v>4.7</v>
       </c>
-      <c r="Q37" s="7">
+      <c r="Q37" s="6">
         <v>4.7</v>
       </c>
-      <c r="R37" s="7">
+      <c r="R37" s="6">
         <v>4.7</v>
       </c>
-      <c r="S37" s="7">
+      <c r="S37" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="T37" s="7">
+      <c r="T37" s="6">
         <v>4.7</v>
       </c>
-      <c r="U37" s="7">
+      <c r="U37" s="6">
         <v>4.7</v>
       </c>
-      <c r="V37" s="7">
+      <c r="V37" s="6">
         <v>4.7</v>
       </c>
-      <c r="W37" s="7">
+      <c r="W37" s="6">
         <v>4.7</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="7">
+      <c r="B38" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="6">
         <v>5.3</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>5.3</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <v>5.4</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="6">
         <v>5.5</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="6">
         <v>5.6</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="6">
         <v>5.4</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="6">
         <v>5.3</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="6">
         <v>5</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="6">
         <v>5</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="6">
         <v>5</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M38" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N38" s="6">
         <v>4.8</v>
       </c>
-      <c r="O38" s="7">
+      <c r="O38" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P38" s="7">
+      <c r="P38" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Q38" s="7">
+      <c r="Q38" s="6">
         <v>4.8</v>
       </c>
-      <c r="R38" s="7">
+      <c r="R38" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="S38" s="7">
+      <c r="S38" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="T38" s="7">
+      <c r="T38" s="6">
         <v>4.8</v>
       </c>
-      <c r="U38" s="7">
+      <c r="U38" s="6">
         <v>4.8</v>
       </c>
-      <c r="V38" s="7">
+      <c r="V38" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="W38" s="7">
+      <c r="W38" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="7">
+      <c r="B39" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="6">
         <v>5.8</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>5.8</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <v>5.8</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <v>5.9</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="6">
         <v>5.9</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="6">
         <v>5.8</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <v>5.9</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="6">
         <v>5.8</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="6">
         <v>5.6</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="6">
         <v>5.6</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="6">
         <v>5.4</v>
       </c>
-      <c r="N39" s="7">
+      <c r="N39" s="6">
         <v>5.3</v>
       </c>
-      <c r="O39" s="7">
+      <c r="O39" s="6">
         <v>5.3</v>
       </c>
-      <c r="P39" s="7">
+      <c r="P39" s="6">
         <v>5.4</v>
       </c>
-      <c r="Q39" s="7">
+      <c r="Q39" s="6">
         <v>5.2</v>
       </c>
-      <c r="R39" s="7">
+      <c r="R39" s="6">
         <v>5.2</v>
       </c>
-      <c r="S39" s="7">
+      <c r="S39" s="6">
         <v>5</v>
       </c>
-      <c r="T39" s="7">
+      <c r="T39" s="6">
         <v>5</v>
       </c>
-      <c r="U39" s="7">
+      <c r="U39" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="V39" s="7">
+      <c r="V39" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="W39" s="7">
+      <c r="W39" s="6">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="7">
+      <c r="B40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="6">
         <v>5.9</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <v>5.9</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <v>5.9</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="6">
         <v>6</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="6">
         <v>6.1</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="6">
         <v>5.9</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <v>5.9</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="6">
         <v>5.9</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="6">
         <v>5.8</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="6">
         <v>5.9</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M40" s="6">
         <v>5.6</v>
       </c>
-      <c r="N40" s="7">
+      <c r="N40" s="6">
         <v>5.4</v>
       </c>
-      <c r="O40" s="7">
+      <c r="O40" s="6">
         <v>5.4</v>
       </c>
-      <c r="P40" s="7">
+      <c r="P40" s="6">
         <v>5.5</v>
       </c>
-      <c r="Q40" s="7">
+      <c r="Q40" s="6">
         <v>5.3</v>
       </c>
-      <c r="R40" s="7">
+      <c r="R40" s="6">
         <v>5.3</v>
       </c>
-      <c r="S40" s="7">
+      <c r="S40" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="T40" s="7">
+      <c r="T40" s="6">
         <v>5</v>
       </c>
-      <c r="U40" s="7">
+      <c r="U40" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="V40" s="7">
+      <c r="V40" s="6">
         <v>5.2</v>
       </c>
-      <c r="W40" s="7">
+      <c r="W40" s="6">
         <v>5.2</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="7">
+      <c r="B41" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="6">
         <v>6.5</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <v>6.2</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <v>6.4</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6">
         <v>6.5</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="6">
         <v>6.6</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="6">
         <v>6.4</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
         <v>6.4</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="6">
         <v>6.3</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="6">
         <v>6.3</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="6">
         <v>6.4</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M41" s="6">
         <v>6.3</v>
       </c>
-      <c r="N41" s="7">
+      <c r="N41" s="6">
         <v>6.1</v>
       </c>
-      <c r="O41" s="7">
+      <c r="O41" s="6">
         <v>6.1</v>
       </c>
-      <c r="P41" s="7">
+      <c r="P41" s="6">
         <v>6.1</v>
       </c>
-      <c r="Q41" s="7">
+      <c r="Q41" s="6">
         <v>6</v>
       </c>
-      <c r="R41" s="7">
+      <c r="R41" s="6">
         <v>5.7</v>
       </c>
-      <c r="S41" s="7">
+      <c r="S41" s="6">
         <v>5.7</v>
       </c>
-      <c r="T41" s="7">
+      <c r="T41" s="6">
         <v>5.7</v>
       </c>
-      <c r="U41" s="7">
+      <c r="U41" s="6">
         <v>5.6</v>
       </c>
-      <c r="V41" s="7">
+      <c r="V41" s="6">
         <v>5.5</v>
       </c>
-      <c r="W41" s="7">
+      <c r="W41" s="6">
         <v>5.5</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="7">
+      <c r="B42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="6">
         <v>6.9</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <v>6.8</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <v>6.7</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="6">
         <v>6.7</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="6">
         <v>6.8</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="6">
         <v>6.9</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="6">
         <v>6.9</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="6">
         <v>6.8</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="6">
         <v>6.8</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="6">
         <v>6.9</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M42" s="6">
         <v>6.8</v>
       </c>
-      <c r="N42" s="7">
+      <c r="N42" s="6">
         <v>6.6</v>
       </c>
-      <c r="O42" s="7">
+      <c r="O42" s="6">
         <v>6.6</v>
       </c>
-      <c r="P42" s="7">
+      <c r="P42" s="6">
         <v>6.6</v>
       </c>
-      <c r="Q42" s="7">
+      <c r="Q42" s="6">
         <v>6.5</v>
       </c>
-      <c r="R42" s="7">
+      <c r="R42" s="6">
         <v>6.4</v>
       </c>
-      <c r="S42" s="7">
+      <c r="S42" s="6">
         <v>6.1</v>
       </c>
-      <c r="T42" s="7">
+      <c r="T42" s="6">
         <v>6.1</v>
       </c>
-      <c r="U42" s="7">
+      <c r="U42" s="6">
         <v>6</v>
       </c>
-      <c r="V42" s="7">
+      <c r="V42" s="6">
         <v>6</v>
       </c>
-      <c r="W42" s="7">
+      <c r="W42" s="6">
         <v>5.9</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="7">
+      <c r="B43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="6">
         <v>7.4</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>7.2</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <v>7.2</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="6">
         <v>7.2</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="6">
         <v>7.1</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="6">
         <v>7.1</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="6">
         <v>7.2</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="6">
         <v>7.3</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K43" s="6">
         <v>7.2</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43" s="6">
         <v>7.3</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M43" s="6">
         <v>7.3</v>
       </c>
-      <c r="N43" s="7">
+      <c r="N43" s="6">
         <v>7</v>
       </c>
-      <c r="O43" s="7">
+      <c r="O43" s="6">
         <v>7.1</v>
       </c>
-      <c r="P43" s="7">
+      <c r="P43" s="6">
         <v>7</v>
       </c>
-      <c r="Q43" s="7">
+      <c r="Q43" s="6">
         <v>6.9</v>
       </c>
-      <c r="R43" s="7">
+      <c r="R43" s="6">
         <v>6.8</v>
       </c>
-      <c r="S43" s="7">
+      <c r="S43" s="6">
         <v>6.7</v>
       </c>
-      <c r="T43" s="7">
+      <c r="T43" s="6">
         <v>6.7</v>
       </c>
-      <c r="U43" s="7">
+      <c r="U43" s="6">
         <v>6.5</v>
       </c>
-      <c r="V43" s="7">
+      <c r="V43" s="6">
         <v>6.5</v>
       </c>
-      <c r="W43" s="7">
+      <c r="W43" s="6">
         <v>6.3</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="7">
+      <c r="B44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="6">
         <v>7.8</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="6">
         <v>7.7</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <v>7.5</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="6">
         <v>7.5</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="6">
         <v>7.5</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="6">
         <v>7.4</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="6">
         <v>7.5</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="6">
         <v>7.6</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="6">
         <v>7.6</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="6">
         <v>7.7</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M44" s="6">
         <v>7.8</v>
       </c>
-      <c r="N44" s="7">
+      <c r="N44" s="6">
         <v>7.6</v>
       </c>
-      <c r="O44" s="7">
+      <c r="O44" s="6">
         <v>7.8</v>
       </c>
-      <c r="P44" s="7">
+      <c r="P44" s="6">
         <v>7.4</v>
       </c>
-      <c r="Q44" s="7">
+      <c r="Q44" s="6">
         <v>7.4</v>
       </c>
-      <c r="R44" s="7">
+      <c r="R44" s="6">
         <v>7.3</v>
       </c>
-      <c r="S44" s="7">
+      <c r="S44" s="6">
         <v>7.2</v>
       </c>
-      <c r="T44" s="7">
+      <c r="T44" s="6">
         <v>7.2</v>
       </c>
-      <c r="U44" s="7">
+      <c r="U44" s="6">
         <v>7</v>
       </c>
-      <c r="V44" s="7">
+      <c r="V44" s="6">
         <v>7</v>
       </c>
-      <c r="W44" s="7">
+      <c r="W44" s="6">
         <v>6.8</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="7">
+      <c r="B45" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="6">
         <v>7.8</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>7.8</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <v>7.5</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <v>7.6</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="6">
         <v>7.6</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="6">
         <v>7.5</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="6">
         <v>7.6</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="6">
         <v>7.6</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="6">
         <v>7.7</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="6">
         <v>7.7</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="6">
         <v>7.8</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N45" s="6">
         <v>7.8</v>
       </c>
-      <c r="O45" s="7">
+      <c r="O45" s="6">
         <v>7.8</v>
       </c>
-      <c r="P45" s="7">
+      <c r="P45" s="6">
         <v>7.4</v>
       </c>
-      <c r="Q45" s="7">
+      <c r="Q45" s="6">
         <v>7.4</v>
       </c>
-      <c r="R45" s="7">
+      <c r="R45" s="6">
         <v>7.4</v>
       </c>
-      <c r="S45" s="7">
+      <c r="S45" s="6">
         <v>7.3</v>
       </c>
-      <c r="T45" s="7">
+      <c r="T45" s="6">
         <v>7.2</v>
       </c>
-      <c r="U45" s="7">
+      <c r="U45" s="6">
         <v>7.1</v>
       </c>
-      <c r="V45" s="7">
+      <c r="V45" s="6">
         <v>7.1</v>
       </c>
-      <c r="W45" s="7">
+      <c r="W45" s="6">
         <v>6.9</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="7">
+      <c r="B46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <v>7.9</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="6">
         <v>7.8</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="6">
         <v>7.8</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="6">
         <v>7.7</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="6">
         <v>7.8</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="6">
         <v>7.9</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="6">
         <v>8</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="6">
         <v>8</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M46" s="6">
         <v>8.1</v>
       </c>
-      <c r="N46" s="7">
+      <c r="N46" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="O46" s="7">
+      <c r="O46" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="P46" s="7">
+      <c r="P46" s="6">
         <v>7.9</v>
       </c>
-      <c r="Q46" s="7">
+      <c r="Q46" s="6">
         <v>7.6</v>
       </c>
-      <c r="R46" s="7">
+      <c r="R46" s="6">
         <v>7.7</v>
       </c>
-      <c r="S46" s="7">
+      <c r="S46" s="6">
         <v>7.7</v>
       </c>
-      <c r="T46" s="7">
+      <c r="T46" s="6">
         <v>7.6</v>
       </c>
-      <c r="U46" s="7">
+      <c r="U46" s="6">
         <v>7.6</v>
       </c>
-      <c r="V46" s="7">
+      <c r="V46" s="6">
         <v>7.5</v>
       </c>
-      <c r="W46" s="7">
+      <c r="W46" s="6">
         <v>7.4</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="7">
+      <c r="B47" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="6">
         <v>8.5</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <v>8.5</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="6">
         <v>7.9</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="6">
         <v>7.9</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="6">
         <v>8</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="6">
         <v>8.1</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M47" s="6">
         <v>8.4</v>
       </c>
-      <c r="N47" s="7">
+      <c r="N47" s="6">
         <v>8.5</v>
       </c>
-      <c r="O47" s="7">
+      <c r="O47" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="P47" s="7">
+      <c r="P47" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="Q47" s="7">
+      <c r="Q47" s="6">
         <v>8.1</v>
       </c>
-      <c r="R47" s="7">
+      <c r="R47" s="6">
         <v>7.9</v>
       </c>
-      <c r="S47" s="7">
+      <c r="S47" s="6">
         <v>8</v>
       </c>
-      <c r="T47" s="7">
+      <c r="T47" s="6">
         <v>8</v>
       </c>
-      <c r="U47" s="7">
+      <c r="U47" s="6">
         <v>7.9</v>
       </c>
-      <c r="V47" s="7">
+      <c r="V47" s="6">
         <v>7.9</v>
       </c>
-      <c r="W47" s="7">
+      <c r="W47" s="6">
         <v>7.8</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="7">
+      <c r="B48" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="6">
         <v>8.5</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="6">
         <v>8.6</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="6">
         <v>8.4</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="6">
         <v>8</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="6">
         <v>8</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="6">
         <v>8</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="6">
         <v>8.5</v>
       </c>
-      <c r="N48" s="7">
+      <c r="N48" s="6">
         <v>8.6</v>
       </c>
-      <c r="O48" s="7">
+      <c r="O48" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="P48" s="7">
+      <c r="P48" s="6">
         <v>8.4</v>
       </c>
-      <c r="Q48" s="7">
+      <c r="Q48" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="R48" s="7">
+      <c r="R48" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="S48" s="7">
+      <c r="S48" s="6">
         <v>8</v>
       </c>
-      <c r="T48" s="7">
+      <c r="T48" s="6">
         <v>8</v>
       </c>
-      <c r="U48" s="7">
+      <c r="U48" s="6">
         <v>8</v>
       </c>
-      <c r="V48" s="7">
+      <c r="V48" s="6">
         <v>8</v>
       </c>
-      <c r="W48" s="7">
+      <c r="W48" s="6">
         <v>7.9</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="7">
+      <c r="B49" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="6">
         <v>8.9</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="6">
         <v>9.1</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="6">
         <v>8.4</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="6">
         <v>8.4</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K49" s="6">
         <v>8.5</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="6">
         <v>8.6</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M49" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="N49" s="7">
+      <c r="N49" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="O49" s="7">
+      <c r="O49" s="6">
         <v>9</v>
       </c>
-      <c r="P49" s="7">
+      <c r="P49" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="Q49" s="7">
+      <c r="Q49" s="6">
         <v>8.5</v>
       </c>
-      <c r="R49" s="7">
+      <c r="R49" s="6">
         <v>8.5</v>
       </c>
-      <c r="S49" s="7">
+      <c r="S49" s="6">
         <v>8.4</v>
       </c>
-      <c r="T49" s="7">
+      <c r="T49" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="U49" s="7">
+      <c r="U49" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="V49" s="7">
+      <c r="V49" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="W49" s="7">
+      <c r="W49" s="6">
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B50" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="7">
+      <c r="B50" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="6">
         <v>9</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="6">
         <v>9</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="6">
         <v>8.6</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="6">
         <v>8.4</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K50" s="6">
         <v>8.6</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M50" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="N50" s="7">
+      <c r="N50" s="6">
         <v>8.9</v>
       </c>
-      <c r="O50" s="7">
+      <c r="O50" s="6">
         <v>9.1</v>
       </c>
-      <c r="P50" s="7">
+      <c r="P50" s="6">
         <v>8.9</v>
       </c>
-      <c r="Q50" s="7">
+      <c r="Q50" s="6">
         <v>8.6</v>
       </c>
-      <c r="R50" s="7">
+      <c r="R50" s="6">
         <v>8.5</v>
       </c>
-      <c r="S50" s="7">
+      <c r="S50" s="6">
         <v>8.5</v>
       </c>
-      <c r="T50" s="7">
+      <c r="T50" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="U50" s="7">
+      <c r="U50" s="6">
         <v>8.4</v>
       </c>
-      <c r="V50" s="7">
+      <c r="V50" s="6">
         <v>8.4</v>
       </c>
-      <c r="W50" s="7">
+      <c r="W50" s="6">
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B51" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="7">
+      <c r="B51" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="6">
         <v>9.4</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="6">
         <v>9.6</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="6">
         <v>9.6</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="6">
         <v>9.5</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="6">
         <v>8.6</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K51" s="7">
+      <c r="K51" s="6">
         <v>9</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L51" s="6">
         <v>9.1</v>
       </c>
-      <c r="M51" s="7">
+      <c r="M51" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="N51" s="7">
+      <c r="N51" s="6">
         <v>9.3000000000000007</v>
       </c>
-      <c r="O51" s="7">
+      <c r="O51" s="6">
         <v>9.5</v>
       </c>
-      <c r="P51" s="7">
+      <c r="P51" s="6">
         <v>9.4</v>
       </c>
-      <c r="Q51" s="7">
+      <c r="Q51" s="6">
         <v>9.3000000000000007</v>
       </c>
-      <c r="R51" s="7">
+      <c r="R51" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="S51" s="7">
+      <c r="S51" s="6">
         <v>9</v>
       </c>
-      <c r="T51" s="7">
+      <c r="T51" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="U51" s="7">
+      <c r="U51" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="V51" s="7">
+      <c r="V51" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="W51" s="7">
+      <c r="W51" s="6">
         <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B52" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="7">
+      <c r="B52" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="6">
         <v>9.6</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="6">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <v>10.1</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="6">
         <v>9.9</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="6">
         <v>9.5</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="6">
         <v>8.9</v>
       </c>
-      <c r="K52" s="7">
+      <c r="K52" s="6">
         <v>9.1</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L52" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="M52" s="7">
+      <c r="M52" s="6">
         <v>9.4</v>
       </c>
-      <c r="N52" s="7">
+      <c r="N52" s="6">
         <v>9.5</v>
       </c>
-      <c r="O52" s="7">
+      <c r="O52" s="6">
         <v>9.6999999999999993</v>
       </c>
-      <c r="P52" s="7">
+      <c r="P52" s="6">
         <v>9.6</v>
       </c>
-      <c r="Q52" s="7">
+      <c r="Q52" s="6">
         <v>9.6</v>
       </c>
-      <c r="R52" s="7">
+      <c r="R52" s="6">
         <v>9.5</v>
       </c>
-      <c r="S52" s="7">
+      <c r="S52" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="T52" s="7">
+      <c r="T52" s="6">
         <v>9</v>
       </c>
-      <c r="U52" s="7">
+      <c r="U52" s="6">
         <v>9</v>
       </c>
-      <c r="V52" s="7">
+      <c r="V52" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="W52" s="7">
+      <c r="W52" s="6">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="7">
+      <c r="B53" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="6">
         <v>10.1</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="6">
         <v>10.3</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="6">
         <v>10.3</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="6">
         <v>10.6</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="6">
         <v>10</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="6">
         <v>9.1</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="6">
         <v>9.1</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="K53" s="7">
+      <c r="K53" s="6">
         <v>9.4</v>
       </c>
-      <c r="L53" s="7">
+      <c r="L53" s="6">
         <v>9.4</v>
       </c>
-      <c r="M53" s="7">
+      <c r="M53" s="6">
         <v>9.6</v>
       </c>
-      <c r="N53" s="7">
+      <c r="N53" s="6">
         <v>9.6999999999999993</v>
       </c>
-      <c r="O53" s="7">
+      <c r="O53" s="6">
         <v>9.9</v>
       </c>
-      <c r="P53" s="7">
+      <c r="P53" s="6">
         <v>9.9</v>
       </c>
-      <c r="Q53" s="7">
+      <c r="Q53" s="6">
         <v>9.9</v>
       </c>
-      <c r="R53" s="7">
+      <c r="R53" s="6">
         <v>10</v>
       </c>
-      <c r="S53" s="7">
+      <c r="S53" s="6">
         <v>9.8000000000000007</v>
       </c>
-      <c r="T53" s="7">
+      <c r="T53" s="6">
         <v>9.5</v>
       </c>
-      <c r="U53" s="7">
+      <c r="U53" s="6">
         <v>9.4</v>
       </c>
-      <c r="V53" s="7">
+      <c r="V53" s="6">
         <v>9</v>
       </c>
-      <c r="W53" s="7">
+      <c r="W53" s="6">
         <v>8.9</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B54" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="7">
+      <c r="B54" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="6">
         <v>10.1</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="6">
         <v>10.4</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="6">
         <v>10.6</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="6">
         <v>10.9</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="6">
         <v>10.1</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="6">
         <v>9.4</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="6">
         <v>9.3000000000000007</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K54" s="6">
         <v>9.4</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L54" s="6">
         <v>9.6</v>
       </c>
-      <c r="M54" s="7">
+      <c r="M54" s="6">
         <v>9.6999999999999993</v>
       </c>
-      <c r="N54" s="7">
+      <c r="N54" s="6">
         <v>9.8000000000000007</v>
       </c>
-      <c r="O54" s="7">
+      <c r="O54" s="6">
         <v>10</v>
       </c>
-      <c r="P54" s="7">
+      <c r="P54" s="6">
         <v>10</v>
       </c>
-      <c r="Q54" s="7">
+      <c r="Q54" s="6">
         <v>10</v>
       </c>
-      <c r="R54" s="7">
+      <c r="R54" s="6">
         <v>10.1</v>
       </c>
-      <c r="S54" s="7">
+      <c r="S54" s="6">
         <v>10.1</v>
       </c>
-      <c r="T54" s="7">
+      <c r="T54" s="6">
         <v>9.8000000000000007</v>
       </c>
-      <c r="U54" s="7">
+      <c r="U54" s="6">
         <v>9.6</v>
       </c>
-      <c r="V54" s="7">
+      <c r="V54" s="6">
         <v>9.1</v>
       </c>
-      <c r="W54" s="7">
+      <c r="W54" s="6">
         <v>9.1</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="7">
+      <c r="B55" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="6">
         <v>10.4</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <v>10.7</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="6">
         <v>11</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="6">
         <v>11.3</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="6">
         <v>11.2</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="6">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="6">
         <v>9.6</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="6">
         <v>9.6999999999999993</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K55" s="6">
         <v>9.6</v>
       </c>
-      <c r="L55" s="7">
+      <c r="L55" s="6">
         <v>9.6999999999999993</v>
       </c>
-      <c r="M55" s="7">
+      <c r="M55" s="6">
         <v>9.9</v>
       </c>
-      <c r="N55" s="7">
+      <c r="N55" s="6">
         <v>10</v>
       </c>
-      <c r="O55" s="7">
+      <c r="O55" s="6">
         <v>10.199999999999999</v>
       </c>
-      <c r="P55" s="7">
+      <c r="P55" s="6">
         <v>10.199999999999999</v>
       </c>
-      <c r="Q55" s="7">
+      <c r="Q55" s="6">
         <v>10.3</v>
       </c>
-      <c r="R55" s="7">
+      <c r="R55" s="6">
         <v>10.4</v>
       </c>
-      <c r="S55" s="7">
+      <c r="S55" s="6">
         <v>10.3</v>
       </c>
-      <c r="T55" s="7">
+      <c r="T55" s="6">
         <v>10.199999999999999</v>
       </c>
-      <c r="U55" s="7">
+      <c r="U55" s="6">
         <v>10.199999999999999</v>
       </c>
-      <c r="V55" s="7">
+      <c r="V55" s="6">
         <v>9.3000000000000007</v>
       </c>
-      <c r="W55" s="7">
+      <c r="W55" s="6">
         <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B56" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="17">
+      <c r="B56" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="16">
         <v>10.5</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="16">
         <v>11</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="16">
         <v>11.3</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="16">
         <v>12</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="16">
         <v>12</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="16">
         <v>10.199999999999999</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I56" s="16">
         <v>10.1</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J56" s="16">
         <v>10.1</v>
       </c>
-      <c r="K56" s="17">
+      <c r="K56" s="16">
         <v>10.1</v>
       </c>
-      <c r="L56" s="17">
+      <c r="L56" s="16">
         <v>10.1</v>
       </c>
-      <c r="M56" s="17">
+      <c r="M56" s="16">
         <v>10.3</v>
       </c>
-      <c r="N56" s="17">
+      <c r="N56" s="16">
         <v>10.199999999999999</v>
       </c>
-      <c r="O56" s="17">
+      <c r="O56" s="16">
         <v>10.5</v>
       </c>
-      <c r="P56" s="17">
+      <c r="P56" s="16">
         <v>10.4</v>
       </c>
-      <c r="Q56" s="17">
+      <c r="Q56" s="16">
         <v>10.6</v>
       </c>
-      <c r="R56" s="17">
+      <c r="R56" s="16">
         <v>10.7</v>
       </c>
-      <c r="S56" s="17">
+      <c r="S56" s="16">
         <v>10.8</v>
       </c>
-      <c r="T56" s="17">
+      <c r="T56" s="16">
         <v>10.7</v>
       </c>
-      <c r="U56" s="17">
+      <c r="U56" s="16">
         <v>10.5</v>
       </c>
-      <c r="V56" s="17">
+      <c r="V56" s="16">
         <v>9.6999999999999993</v>
       </c>
-      <c r="W56" s="17">
+      <c r="W56" s="16">
         <v>9.4</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="7">
+      <c r="B57" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="6">
         <v>11.3</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="6">
         <v>12</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="6">
         <v>12.6</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="6">
         <v>13.5</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="6">
         <v>14.2</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="6">
         <v>13.4</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="6">
         <v>13.7</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="6">
         <v>12.2</v>
       </c>
-      <c r="K57" s="7">
+      <c r="K57" s="6">
         <v>12</v>
       </c>
-      <c r="L57" s="7">
+      <c r="L57" s="6">
         <v>12.1</v>
       </c>
-      <c r="M57" s="7">
+      <c r="M57" s="6">
         <v>11.8</v>
       </c>
-      <c r="N57" s="7">
+      <c r="N57" s="6">
         <v>11.7</v>
       </c>
-      <c r="O57" s="7">
+      <c r="O57" s="6">
         <v>11.9</v>
       </c>
-      <c r="P57" s="7">
+      <c r="P57" s="6">
         <v>11.8</v>
       </c>
-      <c r="Q57" s="7">
+      <c r="Q57" s="6">
         <v>11.9</v>
       </c>
-      <c r="R57" s="7">
+      <c r="R57" s="6">
         <v>12</v>
       </c>
-      <c r="S57" s="7">
+      <c r="S57" s="6">
         <v>12.1</v>
       </c>
-      <c r="T57" s="7">
+      <c r="T57" s="6">
         <v>12</v>
       </c>
-      <c r="U57" s="7">
+      <c r="U57" s="6">
         <v>12.2</v>
       </c>
-      <c r="V57" s="7">
+      <c r="V57" s="6">
         <v>11.1</v>
       </c>
-      <c r="W57" s="7">
+      <c r="W57" s="6">
         <v>10.6</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B58" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="7">
+      <c r="B58" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="6">
         <v>11.5</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="6">
         <v>12.2</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="6">
         <v>12.8</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="6">
         <v>13.8</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="6">
         <v>14.8</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="6">
         <v>15</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="6">
         <v>15</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="6">
         <v>14.6</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K58" s="6">
         <v>12.4</v>
       </c>
-      <c r="L58" s="7">
+      <c r="L58" s="6">
         <v>12.3</v>
       </c>
-      <c r="M58" s="7">
+      <c r="M58" s="6">
         <v>12.5</v>
       </c>
-      <c r="N58" s="7">
+      <c r="N58" s="6">
         <v>12.6</v>
       </c>
-      <c r="O58" s="7">
+      <c r="O58" s="6">
         <v>12.8</v>
       </c>
-      <c r="P58" s="7">
+      <c r="P58" s="6">
         <v>12.2</v>
       </c>
-      <c r="Q58" s="7">
+      <c r="Q58" s="6">
         <v>12.2</v>
       </c>
-      <c r="R58" s="7">
+      <c r="R58" s="6">
         <v>12.4</v>
       </c>
-      <c r="S58" s="7">
+      <c r="S58" s="6">
         <v>12.6</v>
       </c>
-      <c r="T58" s="7">
+      <c r="T58" s="6">
         <v>12.8</v>
       </c>
-      <c r="U58" s="7">
+      <c r="U58" s="6">
         <v>12.9</v>
       </c>
-      <c r="V58" s="7">
+      <c r="V58" s="6">
         <v>11.4</v>
       </c>
-      <c r="W58" s="7">
+      <c r="W58" s="6">
         <v>11.2</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B59" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="7">
+      <c r="B59" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="6">
         <v>12.2</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="6">
         <v>12.9</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="6">
         <v>14</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="6">
         <v>14.6</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="6">
         <v>15.6</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="6">
         <v>15.4</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="6">
         <v>16.600000000000001</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="6">
         <v>18.100000000000001</v>
       </c>
-      <c r="K59" s="7">
+      <c r="K59" s="6">
         <v>15.4</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L59" s="6">
         <v>13.1</v>
       </c>
-      <c r="M59" s="7">
+      <c r="M59" s="6">
         <v>13.2</v>
       </c>
-      <c r="N59" s="7">
+      <c r="N59" s="6">
         <v>13.1</v>
       </c>
-      <c r="O59" s="7">
+      <c r="O59" s="6">
         <v>13.2</v>
       </c>
-      <c r="P59" s="7">
+      <c r="P59" s="6">
         <v>13.3</v>
       </c>
-      <c r="Q59" s="7">
+      <c r="Q59" s="6">
         <v>13.3</v>
       </c>
-      <c r="R59" s="7">
+      <c r="R59" s="6">
         <v>13.4</v>
       </c>
-      <c r="S59" s="7">
+      <c r="S59" s="6">
         <v>13.6</v>
       </c>
-      <c r="T59" s="7">
+      <c r="T59" s="6">
         <v>13.7</v>
       </c>
-      <c r="U59" s="7">
+      <c r="U59" s="6">
         <v>13.9</v>
       </c>
-      <c r="V59" s="7">
+      <c r="V59" s="6">
         <v>13</v>
       </c>
-      <c r="W59" s="7">
+      <c r="W59" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B60" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" s="7">
+      <c r="B60" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="6">
         <v>12.3</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="6">
         <v>13.3</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="6">
         <v>14.2</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="6">
         <v>15.1</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="6">
         <v>15.9</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="6">
         <v>15.8</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="6">
         <v>16.899999999999999</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="6">
         <v>18.3</v>
       </c>
-      <c r="K60" s="7">
+      <c r="K60" s="6">
         <v>17.3</v>
       </c>
-      <c r="L60" s="7">
+      <c r="L60" s="6">
         <v>14.2</v>
       </c>
-      <c r="M60" s="7">
+      <c r="M60" s="6">
         <v>14.3</v>
       </c>
-      <c r="N60" s="7">
+      <c r="N60" s="6">
         <v>13.5</v>
       </c>
-      <c r="O60" s="7">
+      <c r="O60" s="6">
         <v>13.7</v>
       </c>
-      <c r="P60" s="7">
+      <c r="P60" s="6">
         <v>13.5</v>
       </c>
-      <c r="Q60" s="7">
+      <c r="Q60" s="6">
         <v>13.5</v>
       </c>
-      <c r="R60" s="7">
+      <c r="R60" s="6">
         <v>13.6</v>
       </c>
-      <c r="S60" s="7">
+      <c r="S60" s="6">
         <v>13.8</v>
       </c>
-      <c r="T60" s="7">
+      <c r="T60" s="6">
         <v>13.9</v>
       </c>
-      <c r="U60" s="7">
+      <c r="U60" s="6">
         <v>14.1</v>
       </c>
-      <c r="V60" s="7">
+      <c r="V60" s="6">
         <v>13.4</v>
       </c>
-      <c r="W60" s="7">
+      <c r="W60" s="6">
         <v>13.3</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B61" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="7">
+      <c r="B61" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="6">
         <v>13.1</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="6">
         <v>14.2</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="6">
         <v>15.5</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="6">
         <v>16.100000000000001</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="6">
         <v>17.3</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="6">
         <v>16.8</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="6">
         <v>18.3</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J61" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="K61" s="7">
+      <c r="K61" s="6">
         <v>19.600000000000001</v>
       </c>
-      <c r="L61" s="7">
+      <c r="L61" s="6">
         <v>21</v>
       </c>
-      <c r="M61" s="7">
+      <c r="M61" s="6">
         <v>19.899999999999999</v>
       </c>
-      <c r="N61" s="7">
+      <c r="N61" s="6">
         <v>21.3</v>
       </c>
-      <c r="O61" s="7">
+      <c r="O61" s="6">
         <v>22.6</v>
       </c>
-      <c r="P61" s="7">
+      <c r="P61" s="6">
         <v>17.899999999999999</v>
       </c>
-      <c r="Q61" s="7">
+      <c r="Q61" s="6">
         <v>15.2</v>
       </c>
-      <c r="R61" s="7">
+      <c r="R61" s="6">
         <v>14.7</v>
       </c>
-      <c r="S61" s="7">
+      <c r="S61" s="6">
         <v>14.9</v>
       </c>
-      <c r="T61" s="7">
+      <c r="T61" s="6">
         <v>15.1</v>
       </c>
-      <c r="U61" s="7">
+      <c r="U61" s="6">
         <v>15.3</v>
       </c>
-      <c r="V61" s="7">
+      <c r="V61" s="6">
         <v>14.4</v>
       </c>
-      <c r="W61" s="7">
+      <c r="W61" s="6">
         <v>14.6</v>
       </c>
     </row>
@@ -11034,511 +11025,511 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>2023</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>2024</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>2025</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="12">
         <v>2026</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="12">
         <v>2027</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="12">
         <v>2028</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="12">
         <v>2029</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="12">
         <v>2030</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="12">
         <v>2031</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="12">
         <v>2032</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="12">
         <v>2033</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="12">
         <v>2034</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="12">
         <v>2035</v>
       </c>
-      <c r="R2" s="13">
+      <c r="R2" s="12">
         <v>2036</v>
       </c>
-      <c r="S2" s="13">
+      <c r="S2" s="12">
         <v>2037</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="12">
         <v>2038</v>
       </c>
-      <c r="U2" s="13">
+      <c r="U2" s="12">
         <v>2039</v>
       </c>
-      <c r="V2" s="13">
+      <c r="V2" s="12">
         <v>2040</v>
       </c>
-      <c r="W2" s="13">
+      <c r="W2" s="12">
         <v>2041</v>
       </c>
-      <c r="X2" s="13">
+      <c r="X2" s="12">
         <v>2042</v>
       </c>
-      <c r="Y2" s="13">
+      <c r="Y2" s="12">
         <v>2043</v>
       </c>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="U3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="V3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="W3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="X3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="Y3" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>4</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>23.6</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>23.2</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>22.2</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>21.8</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>21.2</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>21</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <v>20.399999999999999</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <v>21.2</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <v>21</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="6">
         <v>19.600000000000001</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="6">
         <v>19.8</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="6">
         <v>19.2</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="6">
         <v>19</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="6">
         <v>18.399999999999999</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="6">
         <v>17.600000000000001</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="6">
         <v>17</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="6">
         <v>16.8</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="6">
         <v>15.4</v>
       </c>
-      <c r="W4" s="7">
+      <c r="W4" s="6">
         <v>12.8</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="6">
         <v>11.4</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>4</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>8</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>38.200000000000003</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>39.6</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>42.8</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>44.4</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>48.2</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>48.4</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>47.4</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <v>44.6</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>43.6</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="6">
         <v>44</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="6">
         <v>42.6</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="6">
         <v>43.8</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="6">
         <v>42.6</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="6">
         <v>47.2</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="6">
         <v>50.2</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="6">
         <v>52</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="6">
         <v>51.8</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="6">
         <v>53</v>
       </c>
-      <c r="W5" s="7">
+      <c r="W5" s="6">
         <v>56.2</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="6">
         <v>57.8</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y5" s="6">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>8</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>12</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>35</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>31.8</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>27</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>23.4</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>20.2</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>24.4</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>26.4</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <v>28.6</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <v>30</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <v>31.2</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="6">
         <v>32.6</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="6">
         <v>32.200000000000003</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="6">
         <v>33.4</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="6">
         <v>29.6</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="6">
         <v>27.8</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="6">
         <v>25.8</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="6">
         <v>26.2</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="6">
         <v>26.2</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="6">
         <v>25</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="6">
         <v>27.4</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Y6" s="6">
         <v>27.4</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>12</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>16</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>3.2</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>5.2</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>7.4</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>8.6</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>4.2</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>2.6</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <v>1.8</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <v>3</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <v>3.2</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="6">
         <v>3.2</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="6">
         <v>3.6</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="6">
         <v>3.6</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="6">
         <v>3.6</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="6">
         <v>3.4</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="6">
         <v>5</v>
       </c>
-      <c r="X7" s="7">
+      <c r="X7" s="6">
         <v>2.6</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="6">
         <v>1.8</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>0</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>0.2</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>0.6</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>1.6</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>1.8</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>2</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>3.2</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <v>3.8</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>2.4</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <v>2</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <v>1.8</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="6">
         <v>1.2</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="6">
         <v>1.4</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="6">
         <v>1.2</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="6">
         <v>1</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="6">
         <v>0.8</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="6">
         <v>0.8</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V8" s="6">
         <v>0.8</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="6">
         <v>1</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X8" s="6">
         <v>0.8</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y8" s="6">
         <v>0.8</v>
       </c>
     </row>
@@ -11546,20 +11537,20 @@
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11574,8 +11565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11916BD6-DDB7-48F0-87FB-E3D3002E203C}">
   <dimension ref="B2:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11722,7 +11713,7 @@
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2">
         <v>24.44</v>
@@ -12020,27 +12011,27 @@
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="O10" s="11" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="O10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="11">
         <v>124901</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="T11" s="9"/>
+      <c r="T11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12055,8 +12046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D71F1F-F2A2-4EEE-B814-99DF172D0F11}">
   <dimension ref="B2:W9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12069,67 +12060,67 @@
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="1">
         <v>2024</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="1">
         <v>2025</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="1">
         <v>2026</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="1">
         <v>2027</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="1">
         <v>2028</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="1">
         <v>2029</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="1">
         <v>2030</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="1">
         <v>2031</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="1">
         <v>2032</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="1">
         <v>2033</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="1">
         <v>2034</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="1">
         <v>2035</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="1">
         <v>2036</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="1">
         <v>2037</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="1">
         <v>2038</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="1">
         <v>2039</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="1">
         <v>2040</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="1">
         <v>2041</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="1">
         <v>2042</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="1">
         <v>2043</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12137,141 +12128,141 @@
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>2495990</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>2496260</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>2263340</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>2457460</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>2032710</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>709900</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>182880</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>1477210</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>1138610</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>856110</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <v>1635230</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <v>36700</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="7">
         <v>1998590</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="7">
         <v>1754210</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="7">
         <v>1099390</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="7">
         <v>578140</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="7">
         <v>691500</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="7">
         <v>2058090</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="7">
         <v>2376030</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="7">
         <v>1305740</v>
       </c>
-      <c r="W3" s="10">
+      <c r="W3" s="9">
         <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>133400</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>121380</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1743120</v>
-      </c>
-      <c r="I4" s="8">
-        <v>1530960</v>
-      </c>
-      <c r="J4" s="8">
-        <v>983200</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>1597400</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
-        <v>1630200</v>
-      </c>
-      <c r="O4" s="8">
-        <v>457300</v>
-      </c>
-      <c r="P4" s="8">
-        <v>732440</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>757560</v>
-      </c>
-      <c r="R4" s="8">
-        <v>1751040</v>
-      </c>
-      <c r="S4" s="8">
-        <v>1314200</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
-      <c r="U4" s="8">
-        <v>93220</v>
-      </c>
-      <c r="V4" s="8">
-        <v>1169960</v>
-      </c>
-      <c r="W4" s="10">
+        <v>95</v>
+      </c>
+      <c r="C4" s="7">
+        <v>122477</v>
+      </c>
+      <c r="D4" s="7">
+        <v>142550</v>
+      </c>
+      <c r="E4" s="7">
+        <v>125883</v>
+      </c>
+      <c r="F4" s="7">
+        <v>94718</v>
+      </c>
+      <c r="G4" s="7">
+        <v>89024</v>
+      </c>
+      <c r="H4" s="7">
+        <v>129571</v>
+      </c>
+      <c r="I4" s="7">
+        <v>174747</v>
+      </c>
+      <c r="J4" s="7">
+        <v>81800</v>
+      </c>
+      <c r="K4" s="7">
+        <v>95129</v>
+      </c>
+      <c r="L4" s="7">
+        <v>112938</v>
+      </c>
+      <c r="M4" s="7">
+        <v>91004</v>
+      </c>
+      <c r="N4" s="7">
+        <v>126635</v>
+      </c>
+      <c r="O4" s="7">
+        <v>136835</v>
+      </c>
+      <c r="P4" s="7">
+        <v>116025</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>77601</v>
+      </c>
+      <c r="R4" s="7">
+        <v>78443</v>
+      </c>
+      <c r="S4" s="7">
+        <v>116814</v>
+      </c>
+      <c r="T4" s="7">
+        <v>141954</v>
+      </c>
+      <c r="U4" s="7">
+        <v>127821</v>
+      </c>
+      <c r="V4" s="7">
+        <v>151008</v>
+      </c>
+      <c r="W4" s="9">
         <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -12279,67 +12270,67 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="8">
-        <v>98560</v>
+      <c r="E5" s="7">
+        <v>133400</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="8">
-        <v>187200</v>
-      </c>
-      <c r="H5" s="8">
-        <v>34560</v>
-      </c>
-      <c r="I5" s="8">
-        <v>774400</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="G5" s="7">
+        <v>121380</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1743120</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1530960</v>
+      </c>
+      <c r="J5" s="7">
+        <v>983200</v>
+      </c>
+      <c r="K5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="8">
-        <v>1356800</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="L5" s="7">
+        <v>1597400</v>
+      </c>
+      <c r="M5" s="2">
         <v>0</v>
       </c>
-      <c r="M5" s="8">
-        <v>829920</v>
-      </c>
-      <c r="N5" s="8">
-        <v>236000</v>
-      </c>
-      <c r="O5" s="8">
-        <v>26240</v>
-      </c>
-      <c r="P5" s="8">
-        <v>13120</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>634520</v>
-      </c>
-      <c r="R5" s="8">
-        <v>166880</v>
-      </c>
-      <c r="S5" s="8">
-        <v>212160</v>
-      </c>
-      <c r="T5" s="8">
-        <v>435040</v>
-      </c>
-      <c r="U5" s="2">
+      <c r="N5" s="7">
+        <v>1630200</v>
+      </c>
+      <c r="O5" s="7">
+        <v>457300</v>
+      </c>
+      <c r="P5" s="7">
+        <v>732440</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>757560</v>
+      </c>
+      <c r="R5" s="7">
+        <v>1751040</v>
+      </c>
+      <c r="S5" s="7">
+        <v>1314200</v>
+      </c>
+      <c r="T5" s="2">
         <v>0</v>
       </c>
-      <c r="V5" s="2">
-        <v>0</v>
-      </c>
-      <c r="W5" s="10">
+      <c r="U5" s="7">
+        <v>93220</v>
+      </c>
+      <c r="V5" s="7">
+        <v>1169960</v>
+      </c>
+      <c r="W5" s="9">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -12347,53 +12338,53 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="7">
+        <v>98560</v>
+      </c>
+      <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="8">
-        <v>25384</v>
-      </c>
-      <c r="G6" s="8">
-        <v>158650</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
+      <c r="G6" s="7">
+        <v>187200</v>
+      </c>
+      <c r="H6" s="7">
+        <v>34560</v>
+      </c>
+      <c r="I6" s="7">
+        <v>774400</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
-      <c r="K6" s="2">
-        <v>0</v>
+      <c r="K6" s="7">
+        <v>1356800</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0</v>
+      <c r="M6" s="7">
+        <v>829920</v>
+      </c>
+      <c r="N6" s="7">
+        <v>236000</v>
+      </c>
+      <c r="O6" s="7">
+        <v>26240</v>
+      </c>
+      <c r="P6" s="7">
+        <v>13120</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>634520</v>
+      </c>
+      <c r="R6" s="7">
+        <v>166880</v>
+      </c>
+      <c r="S6" s="7">
+        <v>212160</v>
+      </c>
+      <c r="T6" s="7">
+        <v>435040</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
@@ -12401,59 +12392,102 @@
       <c r="V6" s="2">
         <v>0</v>
       </c>
-      <c r="W6" s="10">
+      <c r="W6" s="9">
         <v>0.54</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>25384</v>
+      </c>
+      <c r="G7" s="7">
+        <v>158650</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="12"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="T9" s="9"/>
+      <c r="T9" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C8:L8"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
